--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\COVID_vaccination_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -785,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
@@ -845,14 +845,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E11" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E12" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I11" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I12" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="R2" s="5" t="s">
@@ -860,7 +860,7 @@
       </c>
       <c r="S2" s="6">
         <f ca="1">DATE(2021,6,30)-TODAY()</f>
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
         <v>6.5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D11" si="2">C3-C2</f>
+        <f t="shared" ref="D3:D12" si="2">C3-C2</f>
         <v>0.29999999999999982</v>
       </c>
       <c r="E3">
@@ -882,14 +882,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F11" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F12" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H12" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -897,7 +897,7 @@
         <v>3.9384000000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J11" si="5">I3-I2</f>
+        <f t="shared" ref="J3:J12" si="5">I3-I2</f>
         <v>0.32819999999999983</v>
       </c>
       <c r="K3">
@@ -913,7 +913,7 @@
       </c>
       <c r="S3" s="6">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -966,7 +966,7 @@
       </c>
       <c r="S4" s="6">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>0.89082857142857053</v>
+        <v>0.89082857142857108</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1007,11 +1007,11 @@
         <v>0.32820000000000071</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K11" si="8">F5/(F5+J5)</f>
+        <f t="shared" ref="K5:K12" si="8">F5/(F5+J5)</f>
         <v>0.7999999999999996</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L11" si="9">J5/(F5+J5)</f>
+        <f t="shared" ref="L5:L12" si="9">J5/(F5+J5)</f>
         <v>0.20000000000000043</v>
       </c>
       <c r="R5" s="5" t="s">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="S5" s="6">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.42197142857142861</v>
+        <v>0.46885714285714286</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="S6" s="6">
         <f ca="1">((OFFSET(E2,COUNTA(E:E)-1,0))+(S4*S2))*100/328.2</f>
-        <v>39.628571428571384</v>
+        <v>39.357142857142847</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="S7" s="6">
         <f ca="1">((OFFSET(I2,COUNTA(I:I)-1,0))+(S5*S2))*100/328.2</f>
-        <v>18.771428571428576</v>
+        <v>20.714285714285715</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1223,8 +1223,8 @@
         <v>20</v>
       </c>
       <c r="S9" s="10">
-        <f>24.688-6.881</f>
-        <v>17.806999999999999</v>
+        <f>24.88-6.918</f>
+        <v>17.962</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1276,8 +1276,8 @@
         <v>21</v>
       </c>
       <c r="S10" s="10">
-        <f>0.41-0.2</f>
-        <v>0.20999999999999996</v>
+        <f>0.414-0.201</f>
+        <v>0.21299999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1330,19 +1330,60 @@
       </c>
       <c r="S11" s="10">
         <f>(S9-S10)/2</f>
-        <v>8.7984999999999989</v>
+        <v>8.8744999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44232</v>
       </c>
+      <c r="B12">
+        <v>1.36</v>
+      </c>
+      <c r="C12">
+        <v>9.1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>29.866199999999999</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>1.3128000000000029</v>
+      </c>
+      <c r="G12">
+        <v>2.5</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>8.2050000000000001</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>0.65640000000000054</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333304</v>
+      </c>
       <c r="R12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="S12" s="10">
         <f>S11*100/328.2</f>
-        <v>2.6808348567946374</v>
+        <v>2.7039914686166968</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1359,7 +1400,7 @@
       </c>
       <c r="S14" s="8">
         <f ca="1">S6+S12</f>
-        <v>42.309406285366023</v>
+        <v>42.061134325759546</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1371,7 +1412,7 @@
       </c>
       <c r="S15" s="8">
         <f ca="1">S7+S12</f>
-        <v>21.452263428223212</v>
+        <v>23.418277182902411</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1388,7 +1429,7 @@
       </c>
       <c r="S17" s="12">
         <f ca="1">ROUND((85-OFFSET(C1,COUNTA(C:C)-1,0))/(S4*100/328.2),0)</f>
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -1412,7 +1453,7 @@
       </c>
       <c r="S19" s="12">
         <f ca="1">ROUND((85-OFFSET(G2,COUNTA(G:G)-7,0))/(S5*100/328.2),0)</f>
-        <v>648</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -1424,7 +1465,7 @@
       </c>
       <c r="S20" s="13">
         <f ca="1">TODAY()+S19</f>
-        <v>44879</v>
+        <v>44814</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>Estimated Date of Herd Immunity, Full Coverage</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -786,7 +789,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,6 +858,9 @@
         <f t="shared" ref="I2:I12" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
       <c r="R2" s="5" t="s">
         <v>3</v>
       </c>

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -338,9 +338,6 @@
   </si>
   <si>
     <t>Estimated Date of Herd Immunity, Full Coverage</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -789,7 +786,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,9 +855,6 @@
         <f t="shared" ref="I2:I12" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
-      <c r="Q2" t="s">
-        <v>28</v>
-      </c>
       <c r="R2" s="5" t="s">
         <v>3</v>
       </c>

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,14 +845,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E12" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E13" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I12" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I13" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="R2" s="5" t="s">
@@ -860,7 +860,7 @@
       </c>
       <c r="S2" s="6">
         <f ca="1">DATE(2021,6,30)-TODAY()</f>
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
         <v>6.5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D12" si="2">C3-C2</f>
+        <f t="shared" ref="D3:D13" si="2">C3-C2</f>
         <v>0.29999999999999982</v>
       </c>
       <c r="E3">
@@ -882,14 +882,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F12" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F13" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H12" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H13" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -897,7 +897,7 @@
         <v>3.9384000000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J12" si="5">I3-I2</f>
+        <f t="shared" ref="J3:J13" si="5">I3-I2</f>
         <v>0.32819999999999983</v>
       </c>
       <c r="K3">
@@ -913,7 +913,7 @@
       </c>
       <c r="S3" s="6">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -966,7 +966,7 @@
       </c>
       <c r="S4" s="6">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>0.89082857142857108</v>
+        <v>0.93771428571428572</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1007,11 +1007,11 @@
         <v>0.32820000000000071</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K12" si="8">F5/(F5+J5)</f>
+        <f t="shared" ref="K5:K13" si="8">F5/(F5+J5)</f>
         <v>0.7999999999999996</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L12" si="9">J5/(F5+J5)</f>
+        <f t="shared" ref="L5:L13" si="9">J5/(F5+J5)</f>
         <v>0.20000000000000043</v>
       </c>
       <c r="R5" s="5" t="s">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="S5" s="6">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.46885714285714286</v>
+        <v>0.46885714285714297</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="S6" s="6">
         <f ca="1">((OFFSET(E2,COUNTA(E:E)-1,0))+(S4*S2))*100/328.2</f>
-        <v>39.357142857142847</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="S7" s="6">
         <f ca="1">((OFFSET(I2,COUNTA(I:I)-1,0))+(S5*S2))*100/328.2</f>
-        <v>20.714285714285715</v>
+        <v>20.571428571428577</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1223,8 +1223,8 @@
         <v>20</v>
       </c>
       <c r="S9" s="10">
-        <f>24.88-6.918</f>
-        <v>17.962</v>
+        <f>25.047-6.96</f>
+        <v>18.087</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1276,8 +1276,8 @@
         <v>21</v>
       </c>
       <c r="S10" s="10">
-        <f>0.414-0.201</f>
-        <v>0.21299999999999997</v>
+        <f>0.417-0.202</f>
+        <v>0.21499999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="S11" s="10">
         <f>(S9-S10)/2</f>
-        <v>8.8744999999999994</v>
+        <v>8.9359999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1383,13 +1383,54 @@
       </c>
       <c r="S12" s="10">
         <f>S11*100/328.2</f>
-        <v>2.7039914686166968</v>
+        <v>2.7227300426569165</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44233</v>
       </c>
+      <c r="B13">
+        <v>1.43</v>
+      </c>
+      <c r="C13">
+        <v>9.5</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>31.178999999999998</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>1.3127999999999993</v>
+      </c>
+      <c r="G13">
+        <v>2.7</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>8.8614000000000015</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>0.65640000000000143</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333393</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1400,7 +1441,7 @@
       </c>
       <c r="S14" s="8">
         <f ca="1">S6+S12</f>
-        <v>42.061134325759546</v>
+        <v>43.865587185514059</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1412,7 +1453,7 @@
       </c>
       <c r="S15" s="8">
         <f ca="1">S7+S12</f>
-        <v>23.418277182902411</v>
+        <v>23.294158614085493</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1429,7 +1470,7 @@
       </c>
       <c r="S17" s="12">
         <f ca="1">ROUND((85-OFFSET(C1,COUNTA(C:C)-1,0))/(S4*100/328.2),0)</f>
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -1441,7 +1482,7 @@
       </c>
       <c r="S18" s="13">
         <f ca="1">TODAY()+S17</f>
-        <v>44512</v>
+        <v>44497</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1465,7 +1506,7 @@
       </c>
       <c r="S20" s="13">
         <f ca="1">TODAY()+S19</f>
-        <v>44814</v>
+        <v>44815</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -783,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,14 +845,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E13" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E14" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I13" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I14" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="R2" s="5" t="s">
@@ -860,7 +860,7 @@
       </c>
       <c r="S2" s="6">
         <f ca="1">DATE(2021,6,30)-TODAY()</f>
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
         <v>6.5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D13" si="2">C3-C2</f>
+        <f t="shared" ref="D3:D14" si="2">C3-C2</f>
         <v>0.29999999999999982</v>
       </c>
       <c r="E3">
@@ -882,14 +882,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F13" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F14" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H13" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H14" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -897,7 +897,7 @@
         <v>3.9384000000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J13" si="5">I3-I2</f>
+        <f t="shared" ref="J3:J14" si="5">I3-I2</f>
         <v>0.32819999999999983</v>
       </c>
       <c r="K3">
@@ -913,7 +913,7 @@
       </c>
       <c r="S3" s="6">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -966,7 +966,7 @@
       </c>
       <c r="S4" s="6">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>0.93771428571428572</v>
+        <v>0.93771428571428628</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1007,11 +1007,11 @@
         <v>0.32820000000000071</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K13" si="8">F5/(F5+J5)</f>
+        <f t="shared" ref="K5:K14" si="8">F5/(F5+J5)</f>
         <v>0.7999999999999996</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L13" si="9">J5/(F5+J5)</f>
+        <f t="shared" ref="L5:L14" si="9">J5/(F5+J5)</f>
         <v>0.20000000000000043</v>
       </c>
       <c r="R5" s="5" t="s">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="S5" s="6">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.46885714285714297</v>
+        <v>0.51574285714285695</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="S6" s="6">
         <f ca="1">((OFFSET(E2,COUNTA(E:E)-1,0))+(S4*S2))*100/328.2</f>
-        <v>41.142857142857146</v>
+        <v>40.857142857142883</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="S7" s="6">
         <f ca="1">((OFFSET(I2,COUNTA(I:I)-1,0))+(S5*S2))*100/328.2</f>
-        <v>20.571428571428577</v>
+        <v>22.471428571428561</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1223,8 +1223,8 @@
         <v>20</v>
       </c>
       <c r="S9" s="10">
-        <f>25.047-6.96</f>
-        <v>18.087</v>
+        <f>25.177-7.005</f>
+        <v>18.172000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1276,8 +1276,8 @@
         <v>21</v>
       </c>
       <c r="S10" s="10">
-        <f>0.417-0.202</f>
-        <v>0.21499999999999997</v>
+        <f>0.419-0.203</f>
+        <v>0.21599999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="S11" s="10">
         <f>(S9-S10)/2</f>
-        <v>8.9359999999999999</v>
+        <v>8.9779999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="S12" s="10">
         <f>S11*100/328.2</f>
-        <v>2.7227300426569165</v>
+        <v>2.7355271176112126</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1436,12 +1436,53 @@
       <c r="A14" s="1">
         <v>44234</v>
       </c>
+      <c r="B14">
+        <v>1.46</v>
+      </c>
+      <c r="C14">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>32.163600000000002</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0.98460000000000392</v>
+      </c>
+      <c r="G14">
+        <v>2.9</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>0.19999999999999973</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>9.5177999999999994</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>0.65639999999999787</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="8"/>
+        <v>0.60000000000000175</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="9"/>
+        <v>0.39999999999999825</v>
+      </c>
       <c r="R14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="S14" s="8">
         <f ca="1">S6+S12</f>
-        <v>43.865587185514059</v>
+        <v>43.592669974754095</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1453,7 +1494,7 @@
       </c>
       <c r="S15" s="8">
         <f ca="1">S7+S12</f>
-        <v>23.294158614085493</v>
+        <v>25.206955689039773</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1470,7 +1511,7 @@
       </c>
       <c r="S17" s="12">
         <f ca="1">ROUND((85-OFFSET(C1,COUNTA(C:C)-1,0))/(S4*100/328.2),0)</f>
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -1494,7 +1535,7 @@
       </c>
       <c r="S19" s="12">
         <f ca="1">ROUND((85-OFFSET(G2,COUNTA(G:G)-7,0))/(S5*100/328.2),0)</f>
-        <v>582</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -1506,7 +1547,7 @@
       </c>
       <c r="S20" s="13">
         <f ca="1">TODAY()+S19</f>
-        <v>44815</v>
+        <v>44763</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -1542,6 +1583,76 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44261</v>
       </c>
     </row>
   </sheetData>

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -786,7 +786,7 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,14 +845,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E14" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E15" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I14" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I15" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="R2" s="5" t="s">
@@ -860,7 +860,7 @@
       </c>
       <c r="S2" s="6">
         <f ca="1">DATE(2021,6,30)-TODAY()</f>
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
         <v>6.5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D14" si="2">C3-C2</f>
+        <f t="shared" ref="D3:D15" si="2">C3-C2</f>
         <v>0.29999999999999982</v>
       </c>
       <c r="E3">
@@ -882,14 +882,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F14" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F15" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H14" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H15" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -897,7 +897,7 @@
         <v>3.9384000000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J14" si="5">I3-I2</f>
+        <f t="shared" ref="J3:J15" si="5">I3-I2</f>
         <v>0.32819999999999983</v>
       </c>
       <c r="K3">
@@ -913,7 +913,7 @@
       </c>
       <c r="S3" s="6">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -966,7 +966,7 @@
       </c>
       <c r="S4" s="6">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>0.93771428571428628</v>
+        <v>0.89082857142857164</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1007,11 +1007,11 @@
         <v>0.32820000000000071</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K14" si="8">F5/(F5+J5)</f>
+        <f t="shared" ref="K5:K15" si="8">F5/(F5+J5)</f>
         <v>0.7999999999999996</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L14" si="9">J5/(F5+J5)</f>
+        <f t="shared" ref="L5:L15" si="9">J5/(F5+J5)</f>
         <v>0.20000000000000043</v>
       </c>
       <c r="R5" s="5" t="s">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="S5" s="6">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.51574285714285695</v>
+        <v>0.51574285714285728</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="S6" s="6">
         <f ca="1">((OFFSET(E2,COUNTA(E:E)-1,0))+(S4*S2))*100/328.2</f>
-        <v>40.857142857142883</v>
+        <v>38.542857142857152</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="S7" s="6">
         <f ca="1">((OFFSET(I2,COUNTA(I:I)-1,0))+(S5*S2))*100/328.2</f>
-        <v>22.471428571428561</v>
+        <v>22.31428571428572</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1223,8 +1223,8 @@
         <v>20</v>
       </c>
       <c r="S9" s="10">
-        <f>25.177-7.005</f>
-        <v>18.172000000000001</v>
+        <f>25.333-7.059</f>
+        <v>18.273999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1276,8 +1276,8 @@
         <v>21</v>
       </c>
       <c r="S10" s="10">
-        <f>0.419-0.203</f>
-        <v>0.21599999999999997</v>
+        <f>0.421-0.204</f>
+        <v>0.217</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="S11" s="10">
         <f>(S9-S10)/2</f>
-        <v>8.9779999999999998</v>
+        <v>9.0284999999999993</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="S12" s="10">
         <f>S11*100/328.2</f>
-        <v>2.7355271176112126</v>
+        <v>2.7509140767824496</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1482,19 +1482,60 @@
       </c>
       <c r="S14" s="8">
         <f ca="1">S6+S12</f>
-        <v>43.592669974754095</v>
+        <v>41.293771219639602</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44235</v>
       </c>
+      <c r="B15">
+        <v>1.47</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>32.82</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>0.65639999999999787</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>9.8460000000000001</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>0.32820000000000071</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666541</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333454</v>
+      </c>
       <c r="R15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="S15" s="8">
         <f ca="1">S7+S12</f>
-        <v>25.206955689039773</v>
+        <v>25.065199791068171</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1511,7 +1552,7 @@
       </c>
       <c r="S17" s="12">
         <f ca="1">ROUND((85-OFFSET(C1,COUNTA(C:C)-1,0))/(S4*100/328.2),0)</f>
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -1523,7 +1564,7 @@
       </c>
       <c r="S18" s="13">
         <f ca="1">TODAY()+S17</f>
-        <v>44497</v>
+        <v>44511</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1535,7 +1576,7 @@
       </c>
       <c r="S19" s="12">
         <f ca="1">ROUND((85-OFFSET(G2,COUNTA(G:G)-7,0))/(S5*100/328.2),0)</f>
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -845,14 +845,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E15" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E16" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I15" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I16" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="R2" s="5" t="s">
@@ -860,7 +860,7 @@
       </c>
       <c r="S2" s="6">
         <f ca="1">DATE(2021,6,30)-TODAY()</f>
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
         <v>6.5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D15" si="2">C3-C2</f>
+        <f t="shared" ref="D3:D16" si="2">C3-C2</f>
         <v>0.29999999999999982</v>
       </c>
       <c r="E3">
@@ -882,14 +882,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F15" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F16" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H15" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H16" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -897,7 +897,7 @@
         <v>3.9384000000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J15" si="5">I3-I2</f>
+        <f t="shared" ref="J3:J16" si="5">I3-I2</f>
         <v>0.32819999999999983</v>
       </c>
       <c r="K3">
@@ -913,7 +913,7 @@
       </c>
       <c r="S3" s="6">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -966,7 +966,7 @@
       </c>
       <c r="S4" s="6">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>0.89082857142857164</v>
+        <v>0.93771428571428628</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1007,11 +1007,11 @@
         <v>0.32820000000000071</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K15" si="8">F5/(F5+J5)</f>
+        <f t="shared" ref="K5:K16" si="8">F5/(F5+J5)</f>
         <v>0.7999999999999996</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L15" si="9">J5/(F5+J5)</f>
+        <f t="shared" ref="L5:L16" si="9">J5/(F5+J5)</f>
         <v>0.20000000000000043</v>
       </c>
       <c r="R5" s="5" t="s">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="S5" s="6">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.51574285714285728</v>
+        <v>0.56262857142857137</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="S6" s="6">
         <f ca="1">((OFFSET(E2,COUNTA(E:E)-1,0))+(S4*S2))*100/328.2</f>
-        <v>38.542857142857152</v>
+        <v>40.285714285714313</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="S7" s="6">
         <f ca="1">((OFFSET(I2,COUNTA(I:I)-1,0))+(S5*S2))*100/328.2</f>
-        <v>22.31428571428572</v>
+        <v>24.171428571428567</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1223,8 +1223,8 @@
         <v>20</v>
       </c>
       <c r="S9" s="10">
-        <f>25.333-7.059</f>
-        <v>18.273999999999997</v>
+        <f>25.485-7.102</f>
+        <v>18.382999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1276,8 +1276,8 @@
         <v>21</v>
       </c>
       <c r="S10" s="10">
-        <f>0.421-0.204</f>
-        <v>0.217</v>
+        <f>0.425-0.204</f>
+        <v>0.221</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="S11" s="10">
         <f>(S9-S10)/2</f>
-        <v>9.0284999999999993</v>
+        <v>9.0809999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="S12" s="10">
         <f>S11*100/328.2</f>
-        <v>2.7509140767824496</v>
+        <v>2.7669104204753197</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="S14" s="8">
         <f ca="1">S6+S12</f>
-        <v>41.293771219639602</v>
+        <v>43.052624706189633</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1535,13 +1535,54 @@
       </c>
       <c r="S15" s="8">
         <f ca="1">S7+S12</f>
-        <v>25.065199791068171</v>
+        <v>26.938338991903887</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44236</v>
       </c>
+      <c r="B16">
+        <v>1.53</v>
+      </c>
+      <c r="C16">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>33.476399999999998</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>0.65639999999999787</v>
+      </c>
+      <c r="G16">
+        <v>3.1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>10.174199999999999</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>0.32819999999999894</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1552,7 +1593,7 @@
       </c>
       <c r="S17" s="12">
         <f ca="1">ROUND((85-OFFSET(C1,COUNTA(C:C)-1,0))/(S4*100/328.2),0)</f>
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -1564,7 +1605,7 @@
       </c>
       <c r="S18" s="13">
         <f ca="1">TODAY()+S17</f>
-        <v>44511</v>
+        <v>44498</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1576,7 +1617,7 @@
       </c>
       <c r="S19" s="12">
         <f ca="1">ROUND((85-OFFSET(G2,COUNTA(G:G)-7,0))/(S5*100/328.2),0)</f>
-        <v>528</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -1588,7 +1629,7 @@
       </c>
       <c r="S20" s="13">
         <f ca="1">TODAY()+S19</f>
-        <v>44763</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -845,14 +845,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E16" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E17" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I16" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I17" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="R2" s="5" t="s">
@@ -860,7 +860,7 @@
       </c>
       <c r="S2" s="6">
         <f ca="1">DATE(2021,6,30)-TODAY()</f>
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
         <v>6.5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D16" si="2">C3-C2</f>
+        <f t="shared" ref="D3:D17" si="2">C3-C2</f>
         <v>0.29999999999999982</v>
       </c>
       <c r="E3">
@@ -882,14 +882,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F16" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F17" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H16" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H17" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -897,7 +897,7 @@
         <v>3.9384000000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J16" si="5">I3-I2</f>
+        <f t="shared" ref="J3:J17" si="5">I3-I2</f>
         <v>0.32819999999999983</v>
       </c>
       <c r="K3">
@@ -913,7 +913,7 @@
       </c>
       <c r="S3" s="6">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -966,7 +966,7 @@
       </c>
       <c r="S4" s="6">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>0.93771428571428628</v>
+        <v>0.93771428571428517</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1007,11 +1007,11 @@
         <v>0.32820000000000071</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K16" si="8">F5/(F5+J5)</f>
+        <f t="shared" ref="K5:K17" si="8">F5/(F5+J5)</f>
         <v>0.7999999999999996</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L16" si="9">J5/(F5+J5)</f>
+        <f t="shared" ref="L5:L17" si="9">J5/(F5+J5)</f>
         <v>0.20000000000000043</v>
       </c>
       <c r="R5" s="5" t="s">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="S5" s="6">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.56262857142857137</v>
+        <v>0.6095142857142859</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="S6" s="6">
         <f ca="1">((OFFSET(E2,COUNTA(E:E)-1,0))+(S4*S2))*100/328.2</f>
-        <v>40.285714285714313</v>
+        <v>39.999999999999972</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="S7" s="6">
         <f ca="1">((OFFSET(I2,COUNTA(I:I)-1,0))+(S5*S2))*100/328.2</f>
-        <v>24.171428571428567</v>
+        <v>26.000000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1223,8 +1223,8 @@
         <v>20</v>
       </c>
       <c r="S9" s="10">
-        <f>25.485-7.102</f>
-        <v>18.382999999999999</v>
+        <f>25.64-7.14</f>
+        <v>18.5</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1276,8 +1276,8 @@
         <v>21</v>
       </c>
       <c r="S10" s="10">
-        <f>0.425-0.204</f>
-        <v>0.221</v>
+        <f>0.429-0.205</f>
+        <v>0.224</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="S11" s="10">
         <f>(S9-S10)/2</f>
-        <v>9.0809999999999995</v>
+        <v>9.1379999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="S12" s="10">
         <f>S11*100/328.2</f>
-        <v>2.7669104204753197</v>
+        <v>2.7842778793418645</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="S14" s="8">
         <f ca="1">S6+S12</f>
-        <v>43.052624706189633</v>
+        <v>42.784277879341836</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="S15" s="8">
         <f ca="1">S7+S12</f>
-        <v>26.938338991903887</v>
+        <v>28.784277879341872</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1588,12 +1588,53 @@
       <c r="A17" s="1">
         <v>44237</v>
       </c>
+      <c r="B17">
+        <v>1.57</v>
+      </c>
+      <c r="C17">
+        <v>10.5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>34.460999999999999</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>0.98460000000000036</v>
+      </c>
+      <c r="G17">
+        <v>3.4</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>11.158800000000001</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>0.98460000000000214</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="8"/>
+        <v>0.49999999999999956</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="9"/>
+        <v>0.50000000000000044</v>
+      </c>
       <c r="R17" s="11" t="s">
         <v>24</v>
       </c>
       <c r="S17" s="12">
         <f ca="1">ROUND((85-OFFSET(C1,COUNTA(C:C)-1,0))/(S4*100/328.2),0)</f>
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -1617,7 +1658,7 @@
       </c>
       <c r="S19" s="12">
         <f ca="1">ROUND((85-OFFSET(G2,COUNTA(G:G)-7,0))/(S5*100/328.2),0)</f>
-        <v>482</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -1629,7 +1670,7 @@
       </c>
       <c r="S20" s="13">
         <f ca="1">TODAY()+S19</f>
-        <v>44718</v>
+        <v>44681</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -785,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
@@ -845,14 +845,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E17" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E18" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I17" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I18" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="R2" s="5" t="s">
@@ -860,7 +860,7 @@
       </c>
       <c r="S2" s="6">
         <f ca="1">DATE(2021,6,30)-TODAY()</f>
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
         <v>6.5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D17" si="2">C3-C2</f>
+        <f t="shared" ref="D3:D18" si="2">C3-C2</f>
         <v>0.29999999999999982</v>
       </c>
       <c r="E3">
@@ -882,14 +882,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F17" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F18" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H17" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H18" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -897,7 +897,7 @@
         <v>3.9384000000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J17" si="5">I3-I2</f>
+        <f t="shared" ref="J3:J18" si="5">I3-I2</f>
         <v>0.32819999999999983</v>
       </c>
       <c r="K3">
@@ -913,7 +913,7 @@
       </c>
       <c r="S3" s="6">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -966,7 +966,7 @@
       </c>
       <c r="S4" s="6">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>0.93771428571428517</v>
+        <v>1.031485714285715</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1007,11 +1007,11 @@
         <v>0.32820000000000071</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K17" si="8">F5/(F5+J5)</f>
+        <f t="shared" ref="K5:K18" si="8">F5/(F5+J5)</f>
         <v>0.7999999999999996</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L17" si="9">J5/(F5+J5)</f>
+        <f t="shared" ref="L5:L18" si="9">J5/(F5+J5)</f>
         <v>0.20000000000000043</v>
       </c>
       <c r="R5" s="5" t="s">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="S6" s="6">
         <f ca="1">((OFFSET(E2,COUNTA(E:E)-1,0))+(S4*S2))*100/328.2</f>
-        <v>39.999999999999972</v>
+        <v>43.685714285714326</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="S7" s="6">
         <f ca="1">((OFFSET(I2,COUNTA(I:I)-1,0))+(S5*S2))*100/328.2</f>
-        <v>26.000000000000007</v>
+        <v>25.814285714285724</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1223,8 +1223,8 @@
         <v>20</v>
       </c>
       <c r="S9" s="10">
-        <f>25.64-7.14</f>
-        <v>18.5</v>
+        <f>25.806-7.177</f>
+        <v>18.629000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1276,8 +1276,8 @@
         <v>21</v>
       </c>
       <c r="S10" s="10">
-        <f>0.429-0.205</f>
-        <v>0.224</v>
+        <f>0.433-0.205</f>
+        <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="S11" s="10">
         <f>(S9-S10)/2</f>
-        <v>9.1379999999999999</v>
+        <v>9.2004999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="S12" s="10">
         <f>S11*100/328.2</f>
-        <v>2.7842778793418645</v>
+        <v>2.8033211456429008</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="S14" s="8">
         <f ca="1">S6+S12</f>
-        <v>42.784277879341836</v>
+        <v>46.489035431357223</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="S15" s="8">
         <f ca="1">S7+S12</f>
-        <v>28.784277879341872</v>
+        <v>28.617606859928625</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1634,19 +1634,60 @@
       </c>
       <c r="S17" s="12">
         <f ca="1">ROUND((85-OFFSET(C1,COUNTA(C:C)-1,0))/(S4*100/328.2),0)</f>
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44238</v>
       </c>
+      <c r="B18">
+        <v>1.62</v>
+      </c>
+      <c r="C18">
+        <v>10.9</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>35.773800000000001</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>1.3128000000000029</v>
+      </c>
+      <c r="G18">
+        <v>3.6</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>11.815200000000001</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>0.65639999999999965</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="8"/>
+        <v>0.6666666666666673</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="9"/>
+        <v>0.3333333333333327</v>
+      </c>
       <c r="R18" s="11" t="s">
         <v>26</v>
       </c>
       <c r="S18" s="13">
         <f ca="1">TODAY()+S17</f>
-        <v>44498</v>
+        <v>44474</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1658,7 +1699,7 @@
       </c>
       <c r="S19" s="12">
         <f ca="1">ROUND((85-OFFSET(G2,COUNTA(G:G)-7,0))/(S5*100/328.2),0)</f>
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,14 +845,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E18" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E20" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I18" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I20" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="R2" s="5" t="s">
@@ -860,7 +860,7 @@
       </c>
       <c r="S2" s="6">
         <f ca="1">DATE(2021,6,30)-TODAY()</f>
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
         <v>6.5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D18" si="2">C3-C2</f>
+        <f t="shared" ref="D3:D19" si="2">C3-C2</f>
         <v>0.29999999999999982</v>
       </c>
       <c r="E3">
@@ -882,14 +882,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F18" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F20" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H18" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H20" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -897,7 +897,7 @@
         <v>3.9384000000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J18" si="5">I3-I2</f>
+        <f t="shared" ref="J3:J20" si="5">I3-I2</f>
         <v>0.32819999999999983</v>
       </c>
       <c r="K3">
@@ -913,7 +913,7 @@
       </c>
       <c r="S3" s="6">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -966,7 +966,7 @@
       </c>
       <c r="S4" s="6">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>1.031485714285715</v>
+        <v>0.93771428571428628</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1007,11 +1007,11 @@
         <v>0.32820000000000071</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K18" si="8">F5/(F5+J5)</f>
+        <f t="shared" ref="K5:K20" si="8">F5/(F5+J5)</f>
         <v>0.7999999999999996</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L18" si="9">J5/(F5+J5)</f>
+        <f t="shared" ref="L5:L20" si="9">J5/(F5+J5)</f>
         <v>0.20000000000000043</v>
       </c>
       <c r="R5" s="5" t="s">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="S5" s="6">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.6095142857142859</v>
+        <v>0.70328571428571407</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="S6" s="6">
         <f ca="1">((OFFSET(E2,COUNTA(E:E)-1,0))+(S4*S2))*100/328.2</f>
-        <v>43.685714285714326</v>
+        <v>39.142857142857167</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="S7" s="6">
         <f ca="1">((OFFSET(I2,COUNTA(I:I)-1,0))+(S5*S2))*100/328.2</f>
-        <v>25.814285714285724</v>
+        <v>29.357142857142847</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1223,8 +1223,8 @@
         <v>20</v>
       </c>
       <c r="S9" s="10">
-        <f>25.806-7.177</f>
-        <v>18.629000000000001</v>
+        <f>26.105-7.263</f>
+        <v>18.841999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1276,8 +1276,8 @@
         <v>21</v>
       </c>
       <c r="S10" s="10">
-        <f>0.433-0.205</f>
-        <v>0.22800000000000001</v>
+        <f>0.439-0.207</f>
+        <v>0.23200000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="S11" s="10">
         <f>(S9-S10)/2</f>
-        <v>9.2004999999999999</v>
+        <v>9.3049999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="S12" s="10">
         <f>S11*100/328.2</f>
-        <v>2.8033211456429008</v>
+        <v>2.8351614868982327</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="S14" s="8">
         <f ca="1">S6+S12</f>
-        <v>46.489035431357223</v>
+        <v>41.978018629755397</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="S15" s="8">
         <f ca="1">S7+S12</f>
-        <v>28.617606859928625</v>
+        <v>32.192304344041077</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="S17" s="12">
         <f ca="1">ROUND((85-OFFSET(C1,COUNTA(C:C)-1,0))/(S4*100/328.2),0)</f>
-        <v>236</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -1687,31 +1687,113 @@
       </c>
       <c r="S18" s="13">
         <f ca="1">TODAY()+S17</f>
-        <v>44474</v>
+        <v>44497</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44239</v>
       </c>
+      <c r="B19">
+        <v>1.66</v>
+      </c>
+      <c r="C19">
+        <v>11.2</v>
+      </c>
+      <c r="D19">
+        <f>C19-C18</f>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>36.758399999999995</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>0.98459999999999326</v>
+      </c>
+      <c r="G19">
+        <v>3.9</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>12.799799999999999</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>0.98459999999999859</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="8"/>
+        <v>0.49999999999999867</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="9"/>
+        <v>0.50000000000000133</v>
+      </c>
       <c r="R19" s="11" t="s">
         <v>25</v>
       </c>
       <c r="S19" s="12">
         <f ca="1">ROUND((85-OFFSET(G2,COUNTA(G:G)-7,0))/(S5*100/328.2),0)</f>
-        <v>443</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44240</v>
       </c>
+      <c r="B20">
+        <v>1.64</v>
+      </c>
+      <c r="C20">
+        <v>11.5</v>
+      </c>
+      <c r="D20">
+        <f>C20-C19</f>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>37.743000000000002</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>0.98460000000000747</v>
+      </c>
+      <c r="G20">
+        <v>4.2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000027</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>13.7844</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>0.98460000000000036</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="8"/>
+        <v>0.50000000000000178</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="9"/>
+        <v>0.49999999999999817</v>
+      </c>
       <c r="R20" s="11" t="s">
         <v>27</v>
       </c>
       <c r="S20" s="13">
         <f ca="1">TODAY()+S19</f>
-        <v>44681</v>
+        <v>44623</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,14 +845,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E20" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E21" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I20" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I21" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="R2" s="5" t="s">
@@ -860,7 +860,7 @@
       </c>
       <c r="S2" s="6">
         <f ca="1">DATE(2021,6,30)-TODAY()</f>
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
         <v>6.5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D19" si="2">C3-C2</f>
+        <f t="shared" ref="D3:D18" si="2">C3-C2</f>
         <v>0.29999999999999982</v>
       </c>
       <c r="E3">
@@ -882,14 +882,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F20" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F21" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H20" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H21" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -897,7 +897,7 @@
         <v>3.9384000000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J20" si="5">I3-I2</f>
+        <f t="shared" ref="J3:J21" si="5">I3-I2</f>
         <v>0.32819999999999983</v>
       </c>
       <c r="K3">
@@ -913,7 +913,7 @@
       </c>
       <c r="S3" s="6">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -966,7 +966,7 @@
       </c>
       <c r="S4" s="6">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>0.93771428571428628</v>
+        <v>0.93771428571428572</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1007,11 +1007,11 @@
         <v>0.32820000000000071</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K20" si="8">F5/(F5+J5)</f>
+        <f t="shared" ref="K5:K21" si="8">F5/(F5+J5)</f>
         <v>0.7999999999999996</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L20" si="9">J5/(F5+J5)</f>
+        <f t="shared" ref="L5:L21" si="9">J5/(F5+J5)</f>
         <v>0.20000000000000043</v>
       </c>
       <c r="R5" s="5" t="s">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="S5" s="6">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.70328571428571407</v>
+        <v>0.70328571428571451</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="S6" s="6">
         <f ca="1">((OFFSET(E2,COUNTA(E:E)-1,0))+(S4*S2))*100/328.2</f>
-        <v>39.142857142857167</v>
+        <v>38.857142857142854</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="S7" s="6">
         <f ca="1">((OFFSET(I2,COUNTA(I:I)-1,0))+(S5*S2))*100/328.2</f>
-        <v>29.357142857142847</v>
+        <v>29.142857142857153</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1223,8 +1223,8 @@
         <v>20</v>
       </c>
       <c r="S9" s="10">
-        <f>26.105-7.263</f>
-        <v>18.841999999999999</v>
+        <f>26.22-7.263</f>
+        <v>18.957000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1276,8 +1276,8 @@
         <v>21</v>
       </c>
       <c r="S10" s="10">
-        <f>0.439-0.207</f>
-        <v>0.23200000000000001</v>
+        <f>0.441-0.207</f>
+        <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="S11" s="10">
         <f>(S9-S10)/2</f>
-        <v>9.3049999999999997</v>
+        <v>9.3614999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="S12" s="10">
         <f>S11*100/328.2</f>
-        <v>2.8351614868982327</v>
+        <v>2.8523765996343693</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="S14" s="8">
         <f ca="1">S6+S12</f>
-        <v>41.978018629755397</v>
+        <v>41.709519456777223</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="S15" s="8">
         <f ca="1">S7+S12</f>
-        <v>32.192304344041077</v>
+        <v>31.995233742491521</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="S17" s="12">
         <f ca="1">ROUND((85-OFFSET(C1,COUNTA(C:C)-1,0))/(S4*100/328.2),0)</f>
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="S19" s="12">
         <f ca="1">ROUND((85-OFFSET(G2,COUNTA(G:G)-7,0))/(S5*100/328.2),0)</f>
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -1799,6 +1799,47 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44241</v>
+      </c>
+      <c r="B21">
+        <v>1.68</v>
+      </c>
+      <c r="C21">
+        <v>11.8</v>
+      </c>
+      <c r="D21">
+        <f>C21-C20</f>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>38.727600000000002</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>0.98460000000000036</v>
+      </c>
+      <c r="G21">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>14.440800000000001</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>0.65640000000000143</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="8"/>
+        <v>0.59999999999999953</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="9"/>
+        <v>0.40000000000000041</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,14 +845,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E21" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E22" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I21" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I22" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="R2" s="5" t="s">
@@ -860,7 +860,7 @@
       </c>
       <c r="S2" s="6">
         <f ca="1">DATE(2021,6,30)-TODAY()</f>
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -882,14 +882,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F21" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F22" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H21" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H22" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -897,7 +897,7 @@
         <v>3.9384000000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J21" si="5">I3-I2</f>
+        <f t="shared" ref="J3:J22" si="5">I3-I2</f>
         <v>0.32819999999999983</v>
       </c>
       <c r="K3">
@@ -913,7 +913,7 @@
       </c>
       <c r="S3" s="6">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -966,7 +966,7 @@
       </c>
       <c r="S4" s="6">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>0.93771428571428572</v>
+        <v>0.89082857142857208</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1007,11 +1007,11 @@
         <v>0.32820000000000071</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K21" si="8">F5/(F5+J5)</f>
+        <f t="shared" ref="K5:K22" si="8">F5/(F5+J5)</f>
         <v>0.7999999999999996</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L21" si="9">J5/(F5+J5)</f>
+        <f t="shared" ref="L5:L22" si="9">J5/(F5+J5)</f>
         <v>0.20000000000000043</v>
       </c>
       <c r="R5" s="5" t="s">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="S5" s="6">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.70328571428571451</v>
+        <v>0.70328571428571407</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="S6" s="6">
         <f ca="1">((OFFSET(E2,COUNTA(E:E)-1,0))+(S4*S2))*100/328.2</f>
-        <v>38.857142857142854</v>
+        <v>36.642857142857167</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="S7" s="6">
         <f ca="1">((OFFSET(I2,COUNTA(I:I)-1,0))+(S5*S2))*100/328.2</f>
-        <v>29.142857142857153</v>
+        <v>28.92857142857142</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1223,8 +1223,8 @@
         <v>20</v>
       </c>
       <c r="S9" s="10">
-        <f>26.22-7.263</f>
-        <v>18.957000000000001</v>
+        <f>26.359-7.309</f>
+        <v>19.05</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1276,8 +1276,8 @@
         <v>21</v>
       </c>
       <c r="S10" s="10">
-        <f>0.441-0.207</f>
-        <v>0.23400000000000001</v>
+        <f>0.443-0.208</f>
+        <v>0.23500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="S11" s="10">
         <f>(S9-S10)/2</f>
-        <v>9.3614999999999995</v>
+        <v>9.4075000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="S12" s="10">
         <f>S11*100/328.2</f>
-        <v>2.8523765996343693</v>
+        <v>2.8663924436319324</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="S14" s="8">
         <f ca="1">S6+S12</f>
-        <v>41.709519456777223</v>
+        <v>39.509249586489098</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="S15" s="8">
         <f ca="1">S7+S12</f>
-        <v>31.995233742491521</v>
+        <v>31.794963872203354</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="S17" s="12">
         <f ca="1">ROUND((85-OFFSET(C1,COUNTA(C:C)-1,0))/(S4*100/328.2),0)</f>
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="S18" s="13">
         <f ca="1">TODAY()+S17</f>
-        <v>44497</v>
+        <v>44511</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="S19" s="12">
         <f ca="1">ROUND((85-OFFSET(G2,COUNTA(G:G)-7,0))/(S5*100/328.2),0)</f>
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -1838,13 +1838,54 @@
         <v>0.59999999999999953</v>
       </c>
       <c r="L21">
-        <f t="shared" si="9"/>
+        <f>J21/(F21+J21)</f>
         <v>0.40000000000000041</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44242</v>
+      </c>
+      <c r="B22">
+        <v>1.64</v>
+      </c>
+      <c r="C22">
+        <v>11.9</v>
+      </c>
+      <c r="D22">
+        <f>C22-C21</f>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>39.055800000000005</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>0.32820000000000249</v>
+      </c>
+      <c r="G22">
+        <v>4.5</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>14.768999999999998</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>0.32819999999999716</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="8"/>
+        <v>0.50000000000000411</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="9"/>
+        <v>0.49999999999999595</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -81,30 +81,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="R4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>James Ryan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-5-day rolling average - must update to 7 days when available</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="R5" authorId="0" shapeId="0">
       <text>
         <r>
@@ -149,11 +125,35 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
+5-day rolling average - must update to 7 days when available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>James Ryan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
 Estimates for % coverage assume a linear continuation of the latest day's trend every day until June 30th. Note that vaccine distribution is likely to increase rapidly in the coming months</t>
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="0" shapeId="0">
+    <comment ref="R10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R14" authorId="0" shapeId="0">
+    <comment ref="R15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R15" authorId="0" shapeId="0">
+    <comment ref="R16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R17" authorId="0" shapeId="0">
+    <comment ref="R19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +245,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Assumes 85% herd immunity threshold</t>
+Assumes specified percentage herd immunity threshold</t>
         </r>
       </text>
     </comment>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -265,9 +265,6 @@
     <t>Vaccine Series Completed %</t>
   </si>
   <si>
-    <t>Days Until 6/30</t>
-  </si>
-  <si>
     <t>Pop. Initiated Vaccine Schedule (Millions)</t>
   </si>
   <si>
@@ -298,24 +295,12 @@
     <t>Change in Completed %</t>
   </si>
   <si>
-    <t>Estimated % of Pop. Started by 6/30</t>
-  </si>
-  <si>
-    <t>Estimated % of Pop. Finished by 6/30</t>
-  </si>
-  <si>
     <t>Estimated Pop. Starting Schedule/Day</t>
   </si>
   <si>
     <t>Estimated Pop. Finishing Schedule/Day</t>
   </si>
   <si>
-    <t>Estimated % of Pop., Some Protection by 6/30</t>
-  </si>
-  <si>
-    <t>Estimated % of Pop., Full Protection by 6/30</t>
-  </si>
-  <si>
     <t>Total US Cases (Lagged 2 wks, 4 mo. antibodies)</t>
   </si>
   <si>
@@ -338,6 +323,27 @@
   </si>
   <si>
     <t>Estimated Date of Herd Immunity, Full Coverage</t>
+  </si>
+  <si>
+    <t>Herd Immunity Threshold (%)</t>
+  </si>
+  <si>
+    <t>Date of Risk Determination</t>
+  </si>
+  <si>
+    <t>Days Until Date</t>
+  </si>
+  <si>
+    <t>Estimated % of Pop. Started by Date</t>
+  </si>
+  <si>
+    <t>Estimated % of Pop. Finished by Date</t>
+  </si>
+  <si>
+    <t>Estimated % of Pop., Some Protection by Date</t>
+  </si>
+  <si>
+    <t>Estimated % of Pop., Full Protection by Date</t>
   </si>
 </sst>
 </file>
@@ -396,12 +402,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -415,6 +415,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD58DE9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -495,7 +501,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -785,15 +793,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="4" width="8.88671875" customWidth="1"/>
     <col min="18" max="18" width="44.21875" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -804,34 +812,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -845,22 +853,21 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E22" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E23" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I22" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I23" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="6">
-        <f ca="1">DATE(2021,6,30)-TODAY()</f>
-        <v>135</v>
+      <c r="R2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="15">
+        <v>44377</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -882,14 +889,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F22" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F23" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H22" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H23" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -897,7 +904,7 @@
         <v>3.9384000000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J22" si="5">I3-I2</f>
+        <f t="shared" ref="J3:J23" si="5">I3-I2</f>
         <v>0.32819999999999983</v>
       </c>
       <c r="K3">
@@ -908,12 +915,12 @@
         <f t="shared" ref="L3:L4" si="7">J3/(F3+J3)</f>
         <v>0.24999999999999983</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="6">
-        <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.64</v>
+      <c r="R3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="13">
+        <f ca="1">_xlfn.DAYS(S2,TODAY())</f>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -961,12 +968,12 @@
         <f t="shared" si="7"/>
         <v>0.39999999999999875</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="6">
-        <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>0.89082857142857208</v>
+      <c r="R4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="14">
+        <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
+        <v>1.67</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1007,19 +1014,19 @@
         <v>0.32820000000000071</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K22" si="8">F5/(F5+J5)</f>
+        <f t="shared" ref="K5:K23" si="8">F5/(F5+J5)</f>
         <v>0.7999999999999996</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L22" si="9">J5/(F5+J5)</f>
+        <f t="shared" ref="L5:L23" si="9">J5/(F5+J5)</f>
         <v>0.20000000000000043</v>
       </c>
-      <c r="R5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5" s="6">
-        <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.70328571428571407</v>
+      <c r="R5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="14">
+        <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
+        <v>0.93771428571428572</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1067,12 +1074,12 @@
         <f t="shared" si="9"/>
         <v>0.40000000000000097</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="6">
-        <f ca="1">((OFFSET(E2,COUNTA(E:E)-1,0))+(S4*S2))*100/328.2</f>
-        <v>36.642857142857167</v>
+      <c r="S6" s="14">
+        <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
+        <v>0.75017142857142871</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1120,12 +1127,12 @@
         <f t="shared" si="9"/>
         <v>0.24999999999999983</v>
       </c>
-      <c r="R7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" s="6">
-        <f ca="1">((OFFSET(I2,COUNTA(I:I)-1,0))+(S5*S2))*100/328.2</f>
-        <v>28.92857142857142</v>
+      <c r="R7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="14">
+        <f ca="1">((OFFSET(E2,COUNTA(E:E)-1,0))+(S5*S3))*100/328.2</f>
+        <v>38.285714285714285</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1173,6 +1180,13 @@
         <f t="shared" si="9"/>
         <v>0.24999999999999933</v>
       </c>
+      <c r="R8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="14">
+        <f ca="1">((OFFSET(I2,COUNTA(I:I)-1,0))+(S6*S3))*100/328.2</f>
+        <v>30.628571428571437</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1219,13 +1233,6 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" s="10">
-        <f>26.359-7.309</f>
-        <v>19.05</v>
-      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1272,12 +1279,12 @@
         <f t="shared" si="9"/>
         <v>0.39999999999999836</v>
       </c>
-      <c r="R10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S10" s="10">
-        <f>0.443-0.208</f>
-        <v>0.23500000000000001</v>
+      <c r="R10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="8">
+        <f>26.477-7.362</f>
+        <v>19.115000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1325,12 +1332,12 @@
         <f t="shared" si="9"/>
         <v>0.500000000000002</v>
       </c>
-      <c r="R11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="S11" s="10">
-        <f>(S9-S10)/2</f>
-        <v>9.4075000000000006</v>
+      <c r="R11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S11" s="8">
+        <f>0.447-0.209</f>
+        <v>0.23800000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1378,12 +1385,12 @@
         <f t="shared" si="9"/>
         <v>0.33333333333333304</v>
       </c>
-      <c r="R12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="10">
-        <f>S11*100/328.2</f>
-        <v>2.8663924436319324</v>
+      <c r="R12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12" s="8">
+        <f>(S10-S11)/2</f>
+        <v>9.4385000000000012</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1431,6 +1438,13 @@
         <f t="shared" si="9"/>
         <v>0.33333333333333393</v>
       </c>
+      <c r="R13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S13" s="8">
+        <f>S12*100/328.2</f>
+        <v>2.8758379037172461</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1477,13 +1491,6 @@
         <f t="shared" si="9"/>
         <v>0.39999999999999825</v>
       </c>
-      <c r="R14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="S14" s="8">
-        <f ca="1">S6+S12</f>
-        <v>39.509249586489098</v>
-      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1530,12 +1537,12 @@
         <f t="shared" si="9"/>
         <v>0.33333333333333454</v>
       </c>
-      <c r="R15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="S15" s="8">
-        <f ca="1">S7+S12</f>
-        <v>31.794963872203354</v>
+      <c r="R15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S15" s="6">
+        <f ca="1">S7+S13</f>
+        <v>41.161552189431532</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1583,6 +1590,13 @@
         <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
+      <c r="R16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="6">
+        <f ca="1">S8+S13</f>
+        <v>33.504409332288681</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1629,13 +1643,6 @@
         <f t="shared" si="9"/>
         <v>0.50000000000000044</v>
       </c>
-      <c r="R17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="S17" s="12">
-        <f ca="1">ROUND((85-OFFSET(C1,COUNTA(C:C)-1,0))/(S4*100/328.2),0)</f>
-        <v>269</v>
-      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1682,12 +1689,11 @@
         <f t="shared" si="9"/>
         <v>0.3333333333333327</v>
       </c>
-      <c r="R18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="S18" s="13">
-        <f ca="1">TODAY()+S17</f>
-        <v>44511</v>
+      <c r="R18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="10">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1735,12 +1741,12 @@
         <f t="shared" si="9"/>
         <v>0.50000000000000133</v>
       </c>
-      <c r="R19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="S19" s="12">
-        <f ca="1">ROUND((85-OFFSET(G2,COUNTA(G:G)-7,0))/(S5*100/328.2),0)</f>
-        <v>381</v>
+      <c r="R19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="10">
+        <f ca="1">ROUND((S18-OFFSET(C1,COUNTA(C:C)-1,0))/(S5*100/328.2),0)</f>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -1788,12 +1794,12 @@
         <f t="shared" si="9"/>
         <v>0.49999999999999817</v>
       </c>
-      <c r="R20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S20" s="13">
+      <c r="R20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" s="11">
         <f ca="1">TODAY()+S19</f>
-        <v>44623</v>
+        <v>44463</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -1841,6 +1847,13 @@
         <f>J21/(F21+J21)</f>
         <v>0.40000000000000041</v>
       </c>
+      <c r="R21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="10">
+        <f ca="1">ROUND((S18-OFFSET(G2,COUNTA(G:G)-7,0))/(S6*100/328.2),0)</f>
+        <v>312</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1887,10 +1900,58 @@
         <f t="shared" si="9"/>
         <v>0.49999999999999595</v>
       </c>
+      <c r="R22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22" s="11">
+        <f ca="1">TODAY()+S21</f>
+        <v>44555</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44243</v>
+      </c>
+      <c r="B23">
+        <v>1.67</v>
+      </c>
+      <c r="C23">
+        <v>12.2</v>
+      </c>
+      <c r="D23">
+        <f>C23-C22</f>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>40.040399999999998</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>0.98459999999999326</v>
+      </c>
+      <c r="G23">
+        <v>4.7</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>15.4254</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>0.65640000000000143</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="8"/>
+        <v>0.59999999999999787</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="9"/>
+        <v>0.40000000000000219</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -161,7 +161,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>James Ryan:</t>
         </r>
@@ -170,14 +170,86 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-To estimate natural immunity, assume that natural COVID antibodies last for 4 months (estimates on the duration of natural COVID antibodies vary from 2-8 months, and the true duration is unknown). Take total number of US cases lagged by 2 weeks (expected duration of an active COVID infection) and subtract deaths over the same period. To account for cases where immunity was lost, and for past COVID infections which have been vaccinated, take half this number as an estimate of individuals who have natural immunity.</t>
+Data for natural immunity is lagged 2 weeks to account for incubation period</t>
         </r>
       </text>
     </comment>
-    <comment ref="R15" authorId="0" shapeId="0">
+    <comment ref="R11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>James Ryan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Assume duration of natural antibodies is 16 weeks (approx. 4 months)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>James Ryan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+To estimate natural immunity, assume that natural COVID antibodies last for 4 months (estimates on the duration of natural COVID antibodies vary from 2-8 months, and the true duration is unknown). Take total number of US cases lagged by 2 weeks (expected duration of an active COVID infection) and subtract deaths over the same period. To account for cases where immunity was lost, and for past COVID infections which have been vaccinated, take overlap adjustment into account for individuals who have natural immunity.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>James Ryan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed proportion of overlap between individuals receiving vaccine and individuals with natural antibodies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,34 +270,34 @@
           </rPr>
           <t xml:space="preserve">
 For both of these figures, add estimated proportion with natural immunity to estimated population undergoing vaccines</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>James Ryan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-In theory, the gap between these two percentages will decrease over time as more individuals receive their second dose following the first (we should expect the proportion with full protection to lag behind the population with some protection by ~3wks</t>
         </r>
       </text>
     </comment>
     <comment ref="R19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>James Ryan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+In theory, the gap between these two percentages will decrease over time as more individuals receive their second dose following the first (we should expect the proportion with full protection to lag behind the population with some protection by ~3wks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -301,12 +373,6 @@
     <t>Estimated Pop. Finishing Schedule/Day</t>
   </si>
   <si>
-    <t>Total US Cases (Lagged 2 wks, 4 mo. antibodies)</t>
-  </si>
-  <si>
-    <t>Total US Deaths (Lagged 2 wks, 4 mo. antibodies)</t>
-  </si>
-  <si>
     <t>Estimated Pop. w/ Natural Immunity (50% adj.)</t>
   </si>
   <si>
@@ -344,6 +410,21 @@
   </si>
   <si>
     <t>Estimated % of Pop., Full Protection by Date</t>
+  </si>
+  <si>
+    <t>Date 16 Weeks from Lagged Date</t>
+  </si>
+  <si>
+    <t>Lagged Date (2 Weeks)</t>
+  </si>
+  <si>
+    <t>Total US Cases (Lagged 2 wks, 16 wk. antibodies)</t>
+  </si>
+  <si>
+    <t>Total US Deaths (Lagged 2 wks, 16 wk. antibodies)</t>
+  </si>
+  <si>
+    <t>Overlap Adjustment (%)</t>
   </si>
 </sst>
 </file>
@@ -489,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -506,6 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
@@ -853,18 +935,18 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E23" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E24" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I23" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I24" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S2" s="15">
         <v>44377</v>
@@ -889,14 +971,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F23" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F24" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H23" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H24" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -904,7 +986,7 @@
         <v>3.9384000000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J23" si="5">I3-I2</f>
+        <f t="shared" ref="J3:J24" si="5">I3-I2</f>
         <v>0.32819999999999983</v>
       </c>
       <c r="K3">
@@ -916,11 +998,11 @@
         <v>0.24999999999999983</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S3" s="13">
         <f ca="1">_xlfn.DAYS(S2,TODAY())</f>
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -973,7 +1055,7 @@
       </c>
       <c r="S4" s="14">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1014,11 +1096,11 @@
         <v>0.32820000000000071</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K23" si="8">F5/(F5+J5)</f>
+        <f t="shared" ref="K5:K24" si="8">F5/(F5+J5)</f>
         <v>0.7999999999999996</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L23" si="9">J5/(F5+J5)</f>
+        <f t="shared" ref="L5:L24" si="9">J5/(F5+J5)</f>
         <v>0.20000000000000043</v>
       </c>
       <c r="R5" s="12" t="s">
@@ -1026,7 +1108,7 @@
       </c>
       <c r="S5" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>0.93771428571428572</v>
+        <v>0.84394285714285744</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1079,7 +1161,7 @@
       </c>
       <c r="S6" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.75017142857142871</v>
+        <v>0.70328571428571429</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1128,11 +1210,11 @@
         <v>0.24999999999999983</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S7" s="14">
         <f ca="1">((OFFSET(E2,COUNTA(E:E)-1,0))+(S5*S3))*100/328.2</f>
-        <v>38.285714285714285</v>
+        <v>34.200000000000017</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1181,11 +1263,11 @@
         <v>0.24999999999999933</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S8" s="14">
         <f ca="1">((OFFSET(I2,COUNTA(I:I)-1,0))+(S6*S3))*100/328.2</f>
-        <v>30.628571428571437</v>
+        <v>28.500000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1280,11 +1362,11 @@
         <v>0.39999999999999836</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S10" s="8">
-        <f>26.477-7.362</f>
-        <v>19.115000000000002</v>
+        <v>29</v>
+      </c>
+      <c r="S10" s="16">
+        <f ca="1">TODAY()-14</f>
+        <v>44230</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1333,11 +1415,11 @@
         <v>0.500000000000002</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S11" s="8">
-        <f>0.447-0.209</f>
-        <v>0.23800000000000002</v>
+        <v>28</v>
+      </c>
+      <c r="S11" s="16">
+        <f ca="1">S10-(7*16)</f>
+        <v>44118</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1386,11 +1468,11 @@
         <v>0.33333333333333304</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="S12" s="8">
-        <f>(S10-S11)/2</f>
-        <v>9.4385000000000012</v>
+        <f>26.597-7.978</f>
+        <v>18.619</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1439,11 +1521,11 @@
         <v>0.33333333333333393</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="S13" s="8">
-        <f>S12*100/328.2</f>
-        <v>2.8758379037172461</v>
+        <f>0.451-0.217</f>
+        <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1491,6 +1573,12 @@
         <f t="shared" si="9"/>
         <v>0.39999999999999825</v>
       </c>
+      <c r="R14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" s="8">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1537,12 +1625,12 @@
         <f t="shared" si="9"/>
         <v>0.33333333333333454</v>
       </c>
-      <c r="R15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S15" s="6">
-        <f ca="1">S7+S13</f>
-        <v>41.161552189431532</v>
+      <c r="R15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" s="8">
+        <f>(S12-S13)/(100/S14)</f>
+        <v>9.192499999999999</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1590,12 +1678,12 @@
         <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="R16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S16" s="6">
-        <f ca="1">S8+S13</f>
-        <v>33.504409332288681</v>
+      <c r="R16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S16" s="8">
+        <f>S15*100/328.2</f>
+        <v>2.8008836075563677</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -1689,11 +1777,12 @@
         <f t="shared" si="9"/>
         <v>0.3333333333333327</v>
       </c>
-      <c r="R18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="S18" s="10">
-        <v>75</v>
+      <c r="R18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" s="6">
+        <f ca="1">S7+S16</f>
+        <v>37.000883607556382</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1741,12 +1830,12 @@
         <f t="shared" si="9"/>
         <v>0.50000000000000133</v>
       </c>
-      <c r="R19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="S19" s="10">
-        <f ca="1">ROUND((S18-OFFSET(C1,COUNTA(C:C)-1,0))/(S5*100/328.2),0)</f>
-        <v>220</v>
+      <c r="R19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" s="6">
+        <f ca="1">S8+S16</f>
+        <v>31.300883607556372</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -1794,13 +1883,6 @@
         <f t="shared" si="9"/>
         <v>0.49999999999999817</v>
       </c>
-      <c r="R20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S20" s="11">
-        <f ca="1">TODAY()+S19</f>
-        <v>44463</v>
-      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -1848,11 +1930,10 @@
         <v>0.40000000000000041</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S21" s="10">
-        <f ca="1">ROUND((S18-OFFSET(G2,COUNTA(G:G)-7,0))/(S6*100/328.2),0)</f>
-        <v>312</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -1901,11 +1982,11 @@
         <v>0.49999999999999595</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="S22" s="11">
-        <f ca="1">TODAY()+S21</f>
-        <v>44555</v>
+        <v>17</v>
+      </c>
+      <c r="S22" s="10">
+        <f ca="1">ROUND((S21-OFFSET(C1,COUNTA(C:C)-1,0))/(S5*100/328.2),0)</f>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -1953,15 +2034,77 @@
         <f t="shared" si="9"/>
         <v>0.40000000000000219</v>
       </c>
+      <c r="R23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S23" s="11">
+        <f ca="1">TODAY()+S22</f>
+        <v>44488</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44244</v>
       </c>
+      <c r="B24">
+        <v>1.61</v>
+      </c>
+      <c r="C24">
+        <v>12.3</v>
+      </c>
+      <c r="D24">
+        <f>C24-C23</f>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>40.368600000000001</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>0.32820000000000249</v>
+      </c>
+      <c r="G24">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>16.081800000000001</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>0.65640000000000143</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333454</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="9"/>
+        <v>0.66666666666666541</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S24" s="10">
+        <f ca="1">ROUND((S21-OFFSET(G2,COUNTA(G:G)-7,0))/(S6*100/328.2),0)</f>
+        <v>332</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44245</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="11">
+        <f ca="1">TODAY()+S24</f>
+        <v>44576</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -935,14 +935,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E24" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E25" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I24" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I25" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="R2" s="12" t="s">
@@ -971,14 +971,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F24" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F26" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H24" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H25" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -986,7 +986,7 @@
         <v>3.9384000000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J24" si="5">I3-I2</f>
+        <f t="shared" ref="J3:J25" si="5">I3-I2</f>
         <v>0.32819999999999983</v>
       </c>
       <c r="K3">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="S3" s="13">
         <f ca="1">_xlfn.DAYS(S2,TODAY())</f>
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="S4" s="14">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1096,11 +1096,11 @@
         <v>0.32820000000000071</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K24" si="8">F5/(F5+J5)</f>
+        <f t="shared" ref="K5:K25" si="8">F5/(F5+J5)</f>
         <v>0.7999999999999996</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L24" si="9">J5/(F5+J5)</f>
+        <f t="shared" ref="L5:L25" si="9">J5/(F5+J5)</f>
         <v>0.20000000000000043</v>
       </c>
       <c r="R5" s="12" t="s">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="S5" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>0.84394285714285744</v>
+        <v>0.7970571428571428</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="S6" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.70328571428571429</v>
+        <v>0.70328571428571407</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="S7" s="14">
         <f ca="1">((OFFSET(E2,COUNTA(E:E)-1,0))+(S5*S3))*100/328.2</f>
-        <v>34.200000000000017</v>
+        <v>32.057142857142857</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="S8" s="14">
         <f ca="1">((OFFSET(I2,COUNTA(I:I)-1,0))+(S6*S3))*100/328.2</f>
-        <v>28.500000000000004</v>
+        <v>28.285714285714274</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="S10" s="16">
         <f ca="1">TODAY()-14</f>
-        <v>44230</v>
+        <v>44231</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="S11" s="16">
         <f ca="1">S10-(7*16)</f>
-        <v>44118</v>
+        <v>44119</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1471,8 +1471,8 @@
         <v>30</v>
       </c>
       <c r="S12" s="8">
-        <f>26.597-7.978</f>
-        <v>18.619</v>
+        <f>26.723-8.043</f>
+        <v>18.68</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1524,8 +1524,8 @@
         <v>31</v>
       </c>
       <c r="S13" s="8">
-        <f>0.451-0.217</f>
-        <v>0.23400000000000001</v>
+        <f>0.456-0.218</f>
+        <v>0.23800000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="S15" s="8">
         <f>(S12-S13)/(100/S14)</f>
-        <v>9.192499999999999</v>
+        <v>9.2210000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="S16" s="8">
         <f>S15*100/328.2</f>
-        <v>2.8008836075563677</v>
+        <v>2.8095673369896406</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="S18" s="6">
         <f ca="1">S7+S16</f>
-        <v>37.000883607556382</v>
+        <v>34.866710194132494</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1796,7 +1796,7 @@
         <v>11.2</v>
       </c>
       <c r="D19">
-        <f>C19-C18</f>
+        <f t="shared" ref="D19:D25" si="10">C19-C18</f>
         <v>0.29999999999999893</v>
       </c>
       <c r="E19">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="S19" s="6">
         <f ca="1">S8+S16</f>
-        <v>31.300883607556372</v>
+        <v>31.095281622703915</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -1849,7 +1849,7 @@
         <v>11.5</v>
       </c>
       <c r="D20">
-        <f>C20-C19</f>
+        <f t="shared" si="10"/>
         <v>0.30000000000000071</v>
       </c>
       <c r="E20">
@@ -1895,7 +1895,7 @@
         <v>11.8</v>
       </c>
       <c r="D21">
-        <f>C21-C20</f>
+        <f t="shared" si="10"/>
         <v>0.30000000000000071</v>
       </c>
       <c r="E21">
@@ -1947,7 +1947,7 @@
         <v>11.9</v>
       </c>
       <c r="D22">
-        <f>C22-C21</f>
+        <f t="shared" si="10"/>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="E22">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="S22" s="10">
         <f ca="1">ROUND((S21-OFFSET(C1,COUNTA(C:C)-1,0))/(S5*100/328.2),0)</f>
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -2000,7 +2000,7 @@
         <v>12.2</v>
       </c>
       <c r="D23">
-        <f>C23-C22</f>
+        <f t="shared" si="10"/>
         <v>0.29999999999999893</v>
       </c>
       <c r="E23">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="S23" s="11">
         <f ca="1">TODAY()+S22</f>
-        <v>44488</v>
+        <v>44502</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -2053,7 +2053,7 @@
         <v>12.3</v>
       </c>
       <c r="D24">
-        <f>C24-C23</f>
+        <f t="shared" si="10"/>
         <v>0.10000000000000142</v>
       </c>
       <c r="E24">
@@ -2092,19 +2092,60 @@
       </c>
       <c r="S24" s="10">
         <f ca="1">ROUND((S21-OFFSET(G2,COUNTA(G:G)-7,0))/(S6*100/328.2),0)</f>
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44245</v>
       </c>
+      <c r="B25">
+        <v>1.58</v>
+      </c>
+      <c r="C25">
+        <v>12.6</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="10"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>41.353200000000001</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>0.98460000000000036</v>
+      </c>
+      <c r="G25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>16.738199999999999</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>0.65639999999999787</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="8"/>
+        <v>0.60000000000000087</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="9"/>
+        <v>0.39999999999999913</v>
+      </c>
       <c r="R25" s="9" t="s">
         <v>20</v>
       </c>
       <c r="S25" s="11">
         <f ca="1">TODAY()+S24</f>
-        <v>44576</v>
+        <v>44575</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -325,8 +326,66 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>James Ryan</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>James Ryan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Total doses allocated to all jurisdictions; second dose data roughly matches first dose. Source: https://data.cdc.gov/Vaccinations/COVID-19-Vaccine-Distribution-Allocations-by-Juris/saz5-9hgg/data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>James Ryan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Second dose allocation roughly matches first dose. Source: https://data.cdc.gov/Vaccinations/COVID-19-Vaccine-Distribution-Allocations-by-Juris/b7pe-5nws/data</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -425,6 +484,21 @@
   </si>
   <si>
     <t>Overlap Adjustment (%)</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Pfizer Dose Allocation</t>
+  </si>
+  <si>
+    <t>Moderna Dose Allocation</t>
+  </si>
+  <si>
+    <t>Total Dose Allocation</t>
+  </si>
+  <si>
+    <t>% Change in Allocation</t>
   </si>
 </sst>
 </file>
@@ -570,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -588,6 +662,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,7 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
@@ -935,14 +1011,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E25" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E26" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I25" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I26" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="R2" s="12" t="s">
@@ -978,7 +1054,7 @@
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H25" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H26" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -986,7 +1062,7 @@
         <v>3.9384000000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J25" si="5">I3-I2</f>
+        <f t="shared" ref="J3:J26" si="5">I3-I2</f>
         <v>0.32819999999999983</v>
       </c>
       <c r="K3">
@@ -1002,7 +1078,7 @@
       </c>
       <c r="S3" s="13">
         <f ca="1">_xlfn.DAYS(S2,TODAY())</f>
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1055,7 +1131,7 @@
       </c>
       <c r="S4" s="14">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1096,11 +1172,11 @@
         <v>0.32820000000000071</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K25" si="8">F5/(F5+J5)</f>
+        <f t="shared" ref="K5:K26" si="8">F5/(F5+J5)</f>
         <v>0.7999999999999996</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L25" si="9">J5/(F5+J5)</f>
+        <f t="shared" ref="L5:L26" si="9">J5/(F5+J5)</f>
         <v>0.20000000000000043</v>
       </c>
       <c r="R5" s="12" t="s">
@@ -1108,7 +1184,7 @@
       </c>
       <c r="S5" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>0.7970571428571428</v>
+        <v>0.70328571428571451</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1161,7 +1237,7 @@
       </c>
       <c r="S6" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.70328571428571407</v>
+        <v>0.65640000000000021</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1214,7 +1290,7 @@
       </c>
       <c r="S7" s="14">
         <f ca="1">((OFFSET(E2,COUNTA(E:E)-1,0))+(S5*S3))*100/328.2</f>
-        <v>32.057142857142857</v>
+        <v>27.857142857142865</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1267,7 +1343,7 @@
       </c>
       <c r="S8" s="14">
         <f ca="1">((OFFSET(I2,COUNTA(I:I)-1,0))+(S6*S3))*100/328.2</f>
-        <v>28.285714285714274</v>
+        <v>26.000000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1366,7 +1442,7 @@
       </c>
       <c r="S10" s="16">
         <f ca="1">TODAY()-14</f>
-        <v>44231</v>
+        <v>44233</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1419,7 +1495,7 @@
       </c>
       <c r="S11" s="16">
         <f ca="1">S10-(7*16)</f>
-        <v>44119</v>
+        <v>44121</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1471,8 +1547,8 @@
         <v>30</v>
       </c>
       <c r="S12" s="8">
-        <f>26.723-8.043</f>
-        <v>18.68</v>
+        <f>26.835-8.113</f>
+        <v>18.722000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1524,8 +1600,8 @@
         <v>31</v>
       </c>
       <c r="S13" s="8">
-        <f>0.456-0.218</f>
-        <v>0.23800000000000002</v>
+        <f>0.459-0.218</f>
+        <v>0.24100000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1630,7 +1706,7 @@
       </c>
       <c r="S15" s="8">
         <f>(S12-S13)/(100/S14)</f>
-        <v>9.2210000000000001</v>
+        <v>9.2405000000000008</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1683,7 +1759,7 @@
       </c>
       <c r="S16" s="8">
         <f>S15*100/328.2</f>
-        <v>2.8095673369896406</v>
+        <v>2.8155088360755638</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -1782,7 +1858,7 @@
       </c>
       <c r="S18" s="6">
         <f ca="1">S7+S16</f>
-        <v>34.866710194132494</v>
+        <v>30.672651693218427</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1796,7 +1872,7 @@
         <v>11.2</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D25" si="10">C19-C18</f>
+        <f t="shared" ref="D19:D26" si="10">C19-C18</f>
         <v>0.29999999999999893</v>
       </c>
       <c r="E19">
@@ -1835,7 +1911,7 @@
       </c>
       <c r="S19" s="6">
         <f ca="1">S8+S16</f>
-        <v>31.095281622703915</v>
+        <v>28.815508836075573</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -1986,7 +2062,7 @@
       </c>
       <c r="S22" s="10">
         <f ca="1">ROUND((S21-OFFSET(C1,COUNTA(C:C)-1,0))/(S5*100/328.2),0)</f>
-        <v>257</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -2039,7 +2115,7 @@
       </c>
       <c r="S23" s="11">
         <f ca="1">TODAY()+S22</f>
-        <v>44502</v>
+        <v>44538</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -2092,7 +2168,7 @@
       </c>
       <c r="S24" s="10">
         <f ca="1">ROUND((S21-OFFSET(G2,COUNTA(G:G)-7,0))/(S6*100/328.2),0)</f>
-        <v>330</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -2145,13 +2221,54 @@
       </c>
       <c r="S25" s="11">
         <f ca="1">TODAY()+S24</f>
-        <v>44575</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44246</v>
       </c>
+      <c r="B26">
+        <v>1.49</v>
+      </c>
+      <c r="C26">
+        <v>12.7</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="10"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>41.681399999999996</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>0.32819999999999538</v>
+      </c>
+      <c r="G26">
+        <v>5.3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>17.394600000000001</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>0.65640000000000143</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="8"/>
+        <v>0.33333333333332971</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="9"/>
+        <v>0.66666666666667029</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -2226,6 +2343,249 @@
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="18">
+        <v>44179</v>
+      </c>
+      <c r="B2">
+        <v>2980575</v>
+      </c>
+      <c r="D2">
+        <f>B2+C2</f>
+        <v>2980575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
+        <v>44186</v>
+      </c>
+      <c r="B3">
+        <v>2071875</v>
+      </c>
+      <c r="C3">
+        <v>5990000</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D12" si="0">B3+C3</f>
+        <v>8061875</v>
+      </c>
+      <c r="E3">
+        <f>(D3-D2)*100/D2</f>
+        <v>170.48052808602367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>44193</v>
+      </c>
+      <c r="B4">
+        <v>2643225</v>
+      </c>
+      <c r="C4">
+        <v>2047300</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>4690525</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E12" si="1">(D4-D3)*100/D3</f>
+        <v>-41.818435537638578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>44200</v>
+      </c>
+      <c r="B5">
+        <v>2131350</v>
+      </c>
+      <c r="C5">
+        <v>2104400</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>4235750</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-9.6956097664973537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
+        <v>44206</v>
+      </c>
+      <c r="B6">
+        <v>2084550</v>
+      </c>
+      <c r="C6">
+        <v>2064400</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>4148950</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>-2.0492238682641797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>44214</v>
+      </c>
+      <c r="B7">
+        <v>2149875</v>
+      </c>
+      <c r="C7">
+        <v>2150000</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>4299875</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>3.6376673616216153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>44221</v>
+      </c>
+      <c r="B8">
+        <v>2149875</v>
+      </c>
+      <c r="C8">
+        <v>2150000</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4299875</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>44228</v>
+      </c>
+      <c r="B9">
+        <v>2204475</v>
+      </c>
+      <c r="C9">
+        <v>2913400</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>5117875</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>19.023808831652083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>44235</v>
+      </c>
+      <c r="B10">
+        <v>2149875</v>
+      </c>
+      <c r="C10">
+        <v>3430000</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>5579875</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>9.0271841340400076</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>44242</v>
+      </c>
+      <c r="B11">
+        <v>2149875</v>
+      </c>
+      <c r="C11">
+        <v>3352000</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>5501875</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>-1.3978807768991242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>44249</v>
+      </c>
+      <c r="B12">
+        <v>3400020</v>
+      </c>
+      <c r="C12">
+        <v>3350000</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>6750020</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>22.685811655117572</v>
       </c>
     </row>
   </sheetData>

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -951,7 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O7" workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
@@ -1011,14 +1011,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E26" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E27" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I26" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I27" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="R2" s="12" t="s">
@@ -1047,14 +1047,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F26" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F27" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H26" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H27" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -1062,7 +1062,7 @@
         <v>3.9384000000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J26" si="5">I3-I2</f>
+        <f t="shared" ref="J3:J27" si="5">I3-I2</f>
         <v>0.32819999999999983</v>
       </c>
       <c r="K3">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="S4" s="14">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1172,11 +1172,11 @@
         <v>0.32820000000000071</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K26" si="8">F5/(F5+J5)</f>
+        <f t="shared" ref="K5:K27" si="8">F5/(F5+J5)</f>
         <v>0.7999999999999996</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L26" si="9">J5/(F5+J5)</f>
+        <f t="shared" ref="L5:L27" si="9">J5/(F5+J5)</f>
         <v>0.20000000000000043</v>
       </c>
       <c r="R5" s="12" t="s">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="S5" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>0.70328571428571451</v>
+        <v>0.65639999999999987</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="S6" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.65640000000000021</v>
+        <v>0.56262857142857192</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="S7" s="14">
         <f ca="1">((OFFSET(E2,COUNTA(E:E)-1,0))+(S5*S3))*100/328.2</f>
-        <v>27.857142857142865</v>
+        <v>25.999999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="S8" s="14">
         <f ca="1">((OFFSET(I2,COUNTA(I:I)-1,0))+(S6*S3))*100/328.2</f>
-        <v>26.000000000000007</v>
+        <v>22.285714285714302</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1547,8 +1547,8 @@
         <v>30</v>
       </c>
       <c r="S12" s="8">
-        <f>26.835-8.113</f>
-        <v>18.722000000000001</v>
+        <f>26.958-8.166</f>
+        <v>18.791999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1600,8 +1600,8 @@
         <v>31</v>
       </c>
       <c r="S13" s="8">
-        <f>0.459-0.218</f>
-        <v>0.24100000000000002</v>
+        <f>0.462-0.219</f>
+        <v>0.24300000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="S15" s="8">
         <f>(S12-S13)/(100/S14)</f>
-        <v>9.2405000000000008</v>
+        <v>9.2744999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="S16" s="8">
         <f>S15*100/328.2</f>
-        <v>2.8155088360755638</v>
+        <v>2.8258683729433272</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="S18" s="6">
         <f ca="1">S7+S16</f>
-        <v>30.672651693218427</v>
+        <v>28.825868372943319</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1872,7 +1872,7 @@
         <v>11.2</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D26" si="10">C19-C18</f>
+        <f t="shared" ref="D19:D27" si="10">C19-C18</f>
         <v>0.29999999999999893</v>
       </c>
       <c r="E19">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="S19" s="6">
         <f ca="1">S8+S16</f>
-        <v>28.815508836075573</v>
+        <v>25.111582658657628</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="S22" s="10">
         <f ca="1">ROUND((S21-OFFSET(C1,COUNTA(C:C)-1,0))/(S5*100/328.2),0)</f>
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="S23" s="11">
         <f ca="1">TODAY()+S22</f>
-        <v>44538</v>
+        <v>44558</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="S24" s="10">
         <f ca="1">ROUND((S21-OFFSET(G2,COUNTA(G:G)-7,0))/(S6*100/328.2),0)</f>
-        <v>353</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="S25" s="11">
         <f ca="1">TODAY()+S24</f>
-        <v>44600</v>
+        <v>44658</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -2273,6 +2273,47 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44247</v>
+      </c>
+      <c r="B27">
+        <v>1.32</v>
+      </c>
+      <c r="C27">
+        <v>12.9</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="10"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>42.337800000000001</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>0.65640000000000498</v>
+      </c>
+      <c r="G27">
+        <v>5.4</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000053</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>17.722800000000003</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>0.32820000000000249</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O7" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,14 +1011,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E27" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E28" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I27" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I28" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="R2" s="12" t="s">
@@ -1047,14 +1047,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F27" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F28" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H27" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H28" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -1062,7 +1062,7 @@
         <v>3.9384000000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J27" si="5">I3-I2</f>
+        <f t="shared" ref="J3:J28" si="5">I3-I2</f>
         <v>0.32819999999999983</v>
       </c>
       <c r="K3">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="S3" s="13">
         <f ca="1">_xlfn.DAYS(S2,TODAY())</f>
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="S4" s="14">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1172,11 +1172,11 @@
         <v>0.32820000000000071</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K27" si="8">F5/(F5+J5)</f>
+        <f t="shared" ref="K5:K28" si="8">F5/(F5+J5)</f>
         <v>0.7999999999999996</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L27" si="9">J5/(F5+J5)</f>
+        <f t="shared" ref="L5:L28" si="9">J5/(F5+J5)</f>
         <v>0.20000000000000043</v>
       </c>
       <c r="R5" s="12" t="s">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="S5" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>0.65639999999999987</v>
+        <v>0.60951428571428523</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="S6" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.56262857142857192</v>
+        <v>0.60951428571428556</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="S7" s="14">
         <f ca="1">((OFFSET(E2,COUNTA(E:E)-1,0))+(S5*S3))*100/328.2</f>
-        <v>25.999999999999993</v>
+        <v>23.957142857142838</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="S8" s="14">
         <f ca="1">((OFFSET(I2,COUNTA(I:I)-1,0))+(S6*S3))*100/328.2</f>
-        <v>22.285714285714302</v>
+        <v>23.957142857142852</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="S10" s="16">
         <f ca="1">TODAY()-14</f>
-        <v>44233</v>
+        <v>44234</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="S11" s="16">
         <f ca="1">S10-(7*16)</f>
-        <v>44121</v>
+        <v>44122</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1547,8 +1547,8 @@
         <v>30</v>
       </c>
       <c r="S12" s="8">
-        <f>26.958-8.166</f>
-        <v>18.791999999999998</v>
+        <f>27.045-8.214</f>
+        <v>18.831000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1600,7 +1600,7 @@
         <v>31</v>
       </c>
       <c r="S13" s="8">
-        <f>0.462-0.219</f>
+        <f>0.463-0.22</f>
         <v>0.24300000000000002</v>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="S15" s="8">
         <f>(S12-S13)/(100/S14)</f>
-        <v>9.2744999999999997</v>
+        <v>9.2940000000000023</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="S16" s="8">
         <f>S15*100/328.2</f>
-        <v>2.8258683729433272</v>
+        <v>2.8318098720292513</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="S18" s="6">
         <f ca="1">S7+S16</f>
-        <v>28.825868372943319</v>
+        <v>26.788952729172088</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1872,7 +1872,7 @@
         <v>11.2</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D27" si="10">C19-C18</f>
+        <f t="shared" ref="D19:D28" si="10">C19-C18</f>
         <v>0.29999999999999893</v>
       </c>
       <c r="E19">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="S19" s="6">
         <f ca="1">S8+S16</f>
-        <v>25.111582658657628</v>
+        <v>26.788952729172102</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="S22" s="10">
         <f ca="1">ROUND((S21-OFFSET(C1,COUNTA(C:C)-1,0))/(S5*100/328.2),0)</f>
-        <v>311</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="S23" s="11">
         <f ca="1">TODAY()+S22</f>
-        <v>44558</v>
+        <v>44581</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="S24" s="10">
         <f ca="1">ROUND((S21-OFFSET(G2,COUNTA(G:G)-7,0))/(S6*100/328.2),0)</f>
-        <v>411</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="S25" s="11">
         <f ca="1">TODAY()+S24</f>
-        <v>44658</v>
+        <v>44627</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -2319,6 +2319,47 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44248</v>
+      </c>
+      <c r="B28">
+        <v>1.33</v>
+      </c>
+      <c r="C28">
+        <v>13.1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="10"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>42.994199999999999</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>0.65639999999999787</v>
+      </c>
+      <c r="G28">
+        <v>5.7</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>18.7074</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>0.98459999999999681</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1289,8 +1289,8 @@
         <v>24</v>
       </c>
       <c r="S7" s="14">
-        <f ca="1">((OFFSET(E2,COUNTA(E:E)-1,0))+(S5*S3))*100/328.2</f>
-        <v>23.957142857142838</v>
+        <f ca="1">((LOOKUP(2,1/(E:E&lt;&gt;""),E:E))+(S5*S3))*100/328.2</f>
+        <v>37.057142857142843</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1342,8 +1342,8 @@
         <v>25</v>
       </c>
       <c r="S8" s="14">
-        <f ca="1">((OFFSET(I2,COUNTA(I:I)-1,0))+(S6*S3))*100/328.2</f>
-        <v>23.957142857142852</v>
+        <f ca="1">((LOOKUP(2,1/(I:I&lt;&gt;""),I:I))+(S6*S3))*100/328.2</f>
+        <v>29.657142857142848</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="S18" s="6">
         <f ca="1">S7+S16</f>
-        <v>26.788952729172088</v>
+        <v>39.888952729172097</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="S19" s="6">
         <f ca="1">S8+S16</f>
-        <v>26.788952729172102</v>
+        <v>32.488952729172098</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -2061,7 +2061,7 @@
         <v>17</v>
       </c>
       <c r="S22" s="10">
-        <f ca="1">ROUND((S21-OFFSET(C1,COUNTA(C:C)-1,0))/(S5*100/328.2),0)</f>
+        <f ca="1">ROUND((S21-LOOKUP(2,1/(C:C&lt;&gt;""),C:C))/(S5*100/328.2),0)</f>
         <v>333</v>
       </c>
     </row>
@@ -2167,8 +2167,8 @@
         <v>18</v>
       </c>
       <c r="S24" s="10">
-        <f ca="1">ROUND((S21-OFFSET(G2,COUNTA(G:G)-7,0))/(S6*100/328.2),0)</f>
-        <v>379</v>
+        <f ca="1">ROUND((S21-LOOKUP(2,1/(G:G&lt;&gt;""),G:G))/(S6*100/328.2),0)</f>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="S25" s="11">
         <f ca="1">TODAY()+S24</f>
-        <v>44627</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Vaccine Distribution" sheetId="1" r:id="rId1"/>
+    <sheet name="Dose Allocations" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R5" authorId="0" shapeId="0">
+    <comment ref="Q5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R6" authorId="0" shapeId="0">
+    <comment ref="Q6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="Q7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R10" authorId="0" shapeId="0">
+    <comment ref="Q10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R11" authorId="0" shapeId="0">
+    <comment ref="Q11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R12" authorId="0" shapeId="0">
+    <comment ref="Q12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R14" authorId="0" shapeId="0">
+    <comment ref="Q14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R18" authorId="0" shapeId="0">
+    <comment ref="Q18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R19" authorId="0" shapeId="0">
+    <comment ref="Q19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R22" authorId="0" shapeId="0">
+    <comment ref="Q22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -949,20 +949,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="4" width="8.88671875" customWidth="1"/>
-    <col min="18" max="18" width="44.21875" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" customWidth="1"/>
+    <col min="17" max="17" width="44.21875" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44222</v>
       </c>
@@ -1011,24 +1012,24 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E28" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E29" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I28" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I29" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="15">
+      <c r="R2" s="15">
         <v>44377</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44223</v>
       </c>
@@ -1047,14 +1048,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F28" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F29" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H28" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H29" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -1062,7 +1063,7 @@
         <v>3.9384000000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J28" si="5">I3-I2</f>
+        <f t="shared" ref="J3:J29" si="5">I3-I2</f>
         <v>0.32819999999999983</v>
       </c>
       <c r="K3">
@@ -1073,15 +1074,15 @@
         <f t="shared" ref="L3:L4" si="7">J3/(F3+J3)</f>
         <v>0.24999999999999983</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="Q3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="13">
-        <f ca="1">_xlfn.DAYS(S2,TODAY())</f>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R3" s="13">
+        <f ca="1">_xlfn.DAYS(R2,TODAY())</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44224</v>
       </c>
@@ -1126,15 +1127,15 @@
         <f t="shared" si="7"/>
         <v>0.39999999999999875</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="Q4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="14">
+      <c r="R4" s="14">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44225</v>
       </c>
@@ -1172,22 +1173,22 @@
         <v>0.32820000000000071</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K28" si="8">F5/(F5+J5)</f>
+        <f t="shared" ref="K5:K29" si="8">F5/(F5+J5)</f>
         <v>0.7999999999999996</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L28" si="9">J5/(F5+J5)</f>
+        <f t="shared" ref="L5:L29" si="9">J5/(F5+J5)</f>
         <v>0.20000000000000043</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="Q5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="14">
+      <c r="R5" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>0.60951428571428523</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.65639999999999987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44226</v>
       </c>
@@ -1232,15 +1233,15 @@
         <f t="shared" si="9"/>
         <v>0.40000000000000097</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="Q6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="14">
+      <c r="R6" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.60951428571428556</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.65640000000000043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44227</v>
       </c>
@@ -1285,15 +1286,15 @@
         <f t="shared" si="9"/>
         <v>0.24999999999999983</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="Q7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="14">
-        <f ca="1">((LOOKUP(2,1/(E:E&lt;&gt;""),E:E))+(S5*S3))*100/328.2</f>
-        <v>37.057142857142843</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R7" s="14">
+        <f ca="1">((LOOKUP(2,1/(E:E&lt;&gt;""),E:E))+(R5*R3))*100/328.2</f>
+        <v>38.899999999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44228</v>
       </c>
@@ -1338,15 +1339,15 @@
         <f t="shared" si="9"/>
         <v>0.24999999999999933</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="Q8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="14">
-        <f ca="1">((LOOKUP(2,1/(I:I&lt;&gt;""),I:I))+(S6*S3))*100/328.2</f>
-        <v>29.657142857142848</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R8" s="14">
+        <f ca="1">((LOOKUP(2,1/(I:I&lt;&gt;""),I:I))+(R6*R3))*100/328.2</f>
+        <v>31.500000000000014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44229</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44230</v>
       </c>
@@ -1437,15 +1438,15 @@
         <f t="shared" si="9"/>
         <v>0.39999999999999836</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="S10" s="16">
+      <c r="R10" s="16">
         <f ca="1">TODAY()-14</f>
-        <v>44234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>44235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44231</v>
       </c>
@@ -1490,15 +1491,15 @@
         <f t="shared" si="9"/>
         <v>0.500000000000002</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="S11" s="16">
-        <f ca="1">S10-(7*16)</f>
-        <v>44122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R11" s="16">
+        <f ca="1">R10-(7*16)</f>
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44232</v>
       </c>
@@ -1543,15 +1544,15 @@
         <f t="shared" si="9"/>
         <v>0.33333333333333304</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="S12" s="8">
-        <f>27.045-8.214</f>
-        <v>18.831000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R12" s="8">
+        <f>27.138-8.28</f>
+        <v>18.858000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44233</v>
       </c>
@@ -1596,15 +1597,15 @@
         <f t="shared" si="9"/>
         <v>0.33333333333333393</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="S13" s="8">
-        <f>0.463-0.22</f>
-        <v>0.24300000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R13" s="8">
+        <f>0.465-0.221</f>
+        <v>0.24400000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44234</v>
       </c>
@@ -1649,14 +1650,14 @@
         <f t="shared" si="9"/>
         <v>0.39999999999999825</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="S14" s="8">
+      <c r="R14" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44235</v>
       </c>
@@ -1701,15 +1702,15 @@
         <f t="shared" si="9"/>
         <v>0.33333333333333454</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S15" s="8">
-        <f>(S12-S13)/(100/S14)</f>
-        <v>9.2940000000000023</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R15" s="8">
+        <f>(R12-R13)/(100/R14)</f>
+        <v>9.3070000000000022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44236</v>
       </c>
@@ -1754,15 +1755,15 @@
         <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S16" s="8">
-        <f>S15*100/328.2</f>
-        <v>2.8318098720292513</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R16" s="8">
+        <f>R15*100/328.2</f>
+        <v>2.8357708714198671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44237</v>
       </c>
@@ -1808,7 +1809,7 @@
         <v>0.50000000000000044</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44238</v>
       </c>
@@ -1853,15 +1854,15 @@
         <f t="shared" si="9"/>
         <v>0.3333333333333327</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="Q18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S18" s="6">
-        <f ca="1">S7+S16</f>
-        <v>39.888952729172097</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R18" s="6">
+        <f ca="1">R7+R16</f>
+        <v>41.735770871419859</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44239</v>
       </c>
@@ -1872,7 +1873,7 @@
         <v>11.2</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D28" si="10">C19-C18</f>
+        <f t="shared" ref="D19:D29" si="10">C19-C18</f>
         <v>0.29999999999999893</v>
       </c>
       <c r="E19">
@@ -1906,15 +1907,15 @@
         <f t="shared" si="9"/>
         <v>0.50000000000000133</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="Q19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="S19" s="6">
-        <f ca="1">S8+S16</f>
-        <v>32.488952729172098</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R19" s="6">
+        <f ca="1">R8+R16</f>
+        <v>34.335770871419882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44240</v>
       </c>
@@ -1960,7 +1961,7 @@
         <v>0.49999999999999817</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44241</v>
       </c>
@@ -2005,14 +2006,14 @@
         <f>J21/(F21+J21)</f>
         <v>0.40000000000000041</v>
       </c>
-      <c r="R21" s="9" t="s">
+      <c r="Q21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="S21" s="10">
+      <c r="R21" s="10">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44242</v>
       </c>
@@ -2057,15 +2058,15 @@
         <f t="shared" si="9"/>
         <v>0.49999999999999595</v>
       </c>
-      <c r="R22" s="9" t="s">
+      <c r="Q22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S22" s="10">
-        <f ca="1">ROUND((S21-LOOKUP(2,1/(C:C&lt;&gt;""),C:C))/(S5*100/328.2),0)</f>
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R22" s="10">
+        <f ca="1">ROUND((R21-LOOKUP(2,1/(C:C&lt;&gt;""),C:C))/(R5*100/328.2),0)</f>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44243</v>
       </c>
@@ -2110,15 +2111,15 @@
         <f t="shared" si="9"/>
         <v>0.40000000000000219</v>
       </c>
-      <c r="R23" s="9" t="s">
+      <c r="Q23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S23" s="11">
-        <f ca="1">TODAY()+S22</f>
-        <v>44581</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R23" s="11">
+        <f ca="1">TODAY()+R22</f>
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44244</v>
       </c>
@@ -2163,15 +2164,15 @@
         <f t="shared" si="9"/>
         <v>0.66666666666666541</v>
       </c>
-      <c r="R24" s="9" t="s">
+      <c r="Q24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="S24" s="10">
-        <f ca="1">ROUND((S21-LOOKUP(2,1/(G:G&lt;&gt;""),G:G))/(S6*100/328.2),0)</f>
-        <v>373</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R24" s="10">
+        <f ca="1">ROUND((R21-LOOKUP(2,1/(G:G&lt;&gt;""),G:G))/(R6*100/328.2),0)</f>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44245</v>
       </c>
@@ -2216,15 +2217,15 @@
         <f t="shared" si="9"/>
         <v>0.39999999999999913</v>
       </c>
-      <c r="R25" s="9" t="s">
+      <c r="Q25" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="S25" s="11">
-        <f ca="1">TODAY()+S24</f>
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R25" s="11">
+        <f ca="1">TODAY()+R24</f>
+        <v>44595</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44246</v>
       </c>
@@ -2270,7 +2271,7 @@
         <v>0.66666666666667029</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44247</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44248</v>
       </c>
@@ -2362,22 +2363,63 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44249</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>1.37</v>
+      </c>
+      <c r="C29">
+        <v>13.3</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="10"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>43.650600000000004</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>0.65640000000000498</v>
+      </c>
+      <c r="G29">
+        <v>5.9</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>19.363800000000001</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>0.65640000000000143</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="8"/>
+        <v>0.50000000000000133</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="9"/>
+        <v>0.49999999999999867</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44250</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44251</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44252</v>
       </c>
@@ -2425,6 +2467,131 @@
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>44263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>44264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>44273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>44275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>44276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>44277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>44281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>44282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>44283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>44286</v>
       </c>
     </row>
   </sheetData>

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vaccine Distribution" sheetId="1" r:id="rId1"/>
@@ -951,7 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
@@ -1012,14 +1012,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E29" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E31" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I29" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I31" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="Q2" s="12" t="s">
@@ -1048,14 +1048,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F29" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F31" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H29" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H31" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -1063,7 +1063,7 @@
         <v>3.9384000000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J29" si="5">I3-I2</f>
+        <f t="shared" ref="J3:J31" si="5">I3-I2</f>
         <v>0.32819999999999983</v>
       </c>
       <c r="K3">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="R3" s="13">
         <f ca="1">_xlfn.DAYS(R2,TODAY())</f>
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="R4" s="14">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -1173,11 +1173,11 @@
         <v>0.32820000000000071</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K29" si="8">F5/(F5+J5)</f>
+        <f t="shared" ref="K5:K31" si="8">F5/(F5+J5)</f>
         <v>0.7999999999999996</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L29" si="9">J5/(F5+J5)</f>
+        <f t="shared" ref="L5:L31" si="9">J5/(F5+J5)</f>
         <v>0.20000000000000043</v>
       </c>
       <c r="Q5" s="12" t="s">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="R5" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>0.65639999999999987</v>
+        <v>0.60951428571428623</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="R6" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.65640000000000043</v>
+        <v>0.60951428571428523</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="R7" s="14">
         <f ca="1">((LOOKUP(2,1/(E:E&lt;&gt;""),E:E))+(R5*R3))*100/328.2</f>
-        <v>38.899999999999991</v>
+        <v>37.000000000000028</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="R8" s="14">
         <f ca="1">((LOOKUP(2,1/(I:I&lt;&gt;""),I:I))+(R6*R3))*100/328.2</f>
-        <v>31.500000000000014</v>
+        <v>29.599999999999984</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="R10" s="16">
         <f ca="1">TODAY()-14</f>
-        <v>44235</v>
+        <v>44237</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="R11" s="16">
         <f ca="1">R10-(7*16)</f>
-        <v>44123</v>
+        <v>44125</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1548,8 +1548,8 @@
         <v>30</v>
       </c>
       <c r="R12" s="8">
-        <f>27.138-8.28</f>
-        <v>18.858000000000004</v>
+        <f>27.329-8.405</f>
+        <v>18.923999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1601,8 +1601,8 @@
         <v>31</v>
       </c>
       <c r="R13" s="8">
-        <f>0.465-0.221</f>
-        <v>0.24400000000000002</v>
+        <f>0.471-0.222</f>
+        <v>0.24899999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="R15" s="8">
         <f>(R12-R13)/(100/R14)</f>
-        <v>9.3070000000000022</v>
+        <v>9.3375000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="R16" s="8">
         <f>R15*100/328.2</f>
-        <v>2.8357708714198671</v>
+        <v>2.8450639853747717</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="R18" s="6">
         <f ca="1">R7+R16</f>
-        <v>41.735770871419859</v>
+        <v>39.8450639853748</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -1873,7 +1873,7 @@
         <v>11.2</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D29" si="10">C19-C18</f>
+        <f t="shared" ref="D19:D31" si="10">C19-C18</f>
         <v>0.29999999999999893</v>
       </c>
       <c r="E19">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="R19" s="6">
         <f ca="1">R8+R16</f>
-        <v>34.335770871419882</v>
+        <v>32.445063985374759</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="R22" s="10">
         <f ca="1">ROUND((R21-LOOKUP(2,1/(C:C&lt;&gt;""),C:C))/(R5*100/328.2),0)</f>
-        <v>309</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="R23" s="11">
         <f ca="1">TODAY()+R22</f>
-        <v>44558</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="R24" s="10">
         <f ca="1">ROUND((R21-LOOKUP(2,1/(G:G&lt;&gt;""),G:G))/(R6*100/328.2),0)</f>
-        <v>346</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="R25" s="11">
         <f ca="1">TODAY()+R24</f>
-        <v>44595</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
@@ -2413,10 +2413,92 @@
       <c r="A30" s="1">
         <v>44250</v>
       </c>
+      <c r="B30">
+        <v>1.28</v>
+      </c>
+      <c r="C30">
+        <v>13.4</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="10"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>43.9788</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>0.32819999999999538</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>19.692</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>0.32819999999999894</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="8"/>
+        <v>0.49999999999999728</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="9"/>
+        <v>0.50000000000000266</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44251</v>
+      </c>
+      <c r="B31">
+        <v>1.3</v>
+      </c>
+      <c r="C31">
+        <v>13.6</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="10"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>44.635200000000005</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>0.65640000000000498</v>
+      </c>
+      <c r="G31">
+        <v>6.2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>20.348399999999998</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>0.65639999999999787</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="8"/>
+        <v>0.50000000000000266</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="9"/>
+        <v>0.49999999999999728</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
@@ -2603,10 +2685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2658,7 +2740,7 @@
         <v>5990000</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D12" si="0">B3+C3</f>
+        <f t="shared" ref="D3:D13" si="0">B3+C3</f>
         <v>8061875</v>
       </c>
       <c r="E3">
@@ -2681,7 +2763,7 @@
         <v>4690525</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E12" si="1">(D4-D3)*100/D3</f>
+        <f t="shared" ref="E4:E13" si="1">(D4-D3)*100/D3</f>
         <v>-41.818435537638578</v>
       </c>
     </row>
@@ -2835,6 +2917,25 @@
       <c r="E12">
         <f t="shared" si="1"/>
         <v>22.685811655117572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>44256</v>
+      </c>
+      <c r="B13">
+        <v>4001930</v>
+      </c>
+      <c r="C13">
+        <v>3475500</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>7477430</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>10.776412514333291</v>
       </c>
     </row>
   </sheetData>

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
   </bookViews>
   <sheets>
     <sheet name="Vaccine Distribution" sheetId="1" r:id="rId1"/>
@@ -951,7 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
@@ -1012,14 +1012,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E31" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E33" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I31" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I33" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="Q2" s="12" t="s">
@@ -1048,14 +1048,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F31" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F33" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H31" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H33" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -1063,7 +1063,7 @@
         <v>3.9384000000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J31" si="5">I3-I2</f>
+        <f t="shared" ref="J3:J30" si="5">I3-I2</f>
         <v>0.32819999999999983</v>
       </c>
       <c r="K3">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="R3" s="13">
         <f ca="1">_xlfn.DAYS(R2,TODAY())</f>
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="R4" s="14">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -1173,11 +1173,11 @@
         <v>0.32820000000000071</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K31" si="8">F5/(F5+J5)</f>
+        <f t="shared" ref="K5:K30" si="8">F5/(F5+J5)</f>
         <v>0.7999999999999996</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L31" si="9">J5/(F5+J5)</f>
+        <f t="shared" ref="L5:L30" si="9">J5/(F5+J5)</f>
         <v>0.20000000000000043</v>
       </c>
       <c r="Q5" s="12" t="s">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="R5" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>0.60951428571428623</v>
+        <v>0.70328571428571351</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="R6" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.60951428571428523</v>
+        <v>0.70328571428571451</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="R7" s="14">
         <f ca="1">((LOOKUP(2,1/(E:E&lt;&gt;""),E:E))+(R5*R3))*100/328.2</f>
-        <v>37.000000000000028</v>
+        <v>40.771428571428544</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="R8" s="14">
         <f ca="1">((LOOKUP(2,1/(I:I&lt;&gt;""),I:I))+(R6*R3))*100/328.2</f>
-        <v>29.599999999999984</v>
+        <v>33.371428571428581</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="R10" s="16">
         <f ca="1">TODAY()-14</f>
-        <v>44237</v>
+        <v>44239</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="R11" s="16">
         <f ca="1">R10-(7*16)</f>
-        <v>44125</v>
+        <v>44127</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1548,8 +1548,8 @@
         <v>30</v>
       </c>
       <c r="R12" s="8">
-        <f>27.329-8.405</f>
-        <v>18.923999999999999</v>
+        <f>27.535-8.565</f>
+        <v>18.97</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1601,8 +1601,8 @@
         <v>31</v>
       </c>
       <c r="R13" s="8">
-        <f>0.471-0.222</f>
-        <v>0.24899999999999997</v>
+        <f>0.48-0.224</f>
+        <v>0.25600000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="R15" s="8">
         <f>(R12-R13)/(100/R14)</f>
-        <v>9.3375000000000004</v>
+        <v>9.3569999999999993</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="R16" s="8">
         <f>R15*100/328.2</f>
-        <v>2.8450639853747717</v>
+        <v>2.8510054844606945</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="R18" s="6">
         <f ca="1">R7+R16</f>
-        <v>39.8450639853748</v>
+        <v>43.622434055889237</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -1873,7 +1873,7 @@
         <v>11.2</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D31" si="10">C19-C18</f>
+        <f t="shared" ref="D19:D33" si="10">C19-C18</f>
         <v>0.29999999999999893</v>
       </c>
       <c r="E19">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="R19" s="6">
         <f ca="1">R8+R16</f>
-        <v>32.445063985374759</v>
+        <v>36.222434055889273</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="R22" s="10">
         <f ca="1">ROUND((R21-LOOKUP(2,1/(C:C&lt;&gt;""),C:C))/(R5*100/328.2),0)</f>
-        <v>331</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="R23" s="11">
         <f ca="1">TODAY()+R22</f>
-        <v>44582</v>
+        <v>44537</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="R24" s="10">
         <f ca="1">ROUND((R21-LOOKUP(2,1/(G:G&lt;&gt;""),G:G))/(R6*100/328.2),0)</f>
-        <v>370</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="R25" s="11">
         <f ca="1">TODAY()+R24</f>
-        <v>44621</v>
+        <v>44571</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
@@ -2489,15 +2489,15 @@
         <v>20.348399999999998</v>
       </c>
       <c r="J31">
-        <f t="shared" si="5"/>
+        <f>I31-I30</f>
         <v>0.65639999999999787</v>
       </c>
       <c r="K31">
-        <f t="shared" si="8"/>
+        <f>F31/(F31+J31)</f>
         <v>0.50000000000000266</v>
       </c>
       <c r="L31">
-        <f t="shared" si="9"/>
+        <f>J31/(F31+J31)</f>
         <v>0.49999999999999728</v>
       </c>
     </row>
@@ -2505,83 +2505,165 @@
       <c r="A32" s="1">
         <v>44252</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1.31</v>
+      </c>
+      <c r="C32">
+        <v>13.9</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="10"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>45.619800000000005</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0.98460000000000036</v>
+      </c>
+      <c r="G32">
+        <v>6.5</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>21.332999999999998</v>
+      </c>
+      <c r="J32">
+        <f>I32-I31</f>
+        <v>0.98460000000000036</v>
+      </c>
+      <c r="K32">
+        <f>F32/(F32+J32)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L32">
+        <f>J32/(F32+J32)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44253</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>1.45</v>
+      </c>
+      <c r="C33">
+        <v>14.2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="10"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>46.604399999999991</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>0.98459999999998615</v>
+      </c>
+      <c r="G33">
+        <v>6.8</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>22.317600000000002</v>
+      </c>
+      <c r="J33">
+        <f>I33-I32</f>
+        <v>0.98460000000000392</v>
+      </c>
+      <c r="K33">
+        <f>F33/(F33+J33)</f>
+        <v>0.4999999999999955</v>
+      </c>
+      <c r="L33">
+        <f>J33/(F33+J33)</f>
+        <v>0.50000000000000455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44254</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44255</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44256</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44257</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44258</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44259</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44260</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44261</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44262</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44263</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44264</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44265</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44266</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44267</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44268</v>
       </c>
@@ -2687,7 +2769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>% Change in Allocation</t>
+  </si>
+  <si>
+    <t>Janssen (J&amp;J) Dose Allocation</t>
   </si>
 </sst>
 </file>
@@ -951,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1012,14 +1015,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E35" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I33" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I35" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="Q2" s="12" t="s">
@@ -1048,14 +1051,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F33" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F35" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H33" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H35" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -1079,7 +1082,7 @@
       </c>
       <c r="R3" s="13">
         <f ca="1">_xlfn.DAYS(R2,TODAY())</f>
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1132,7 +1135,7 @@
       </c>
       <c r="R4" s="14">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.45</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -1185,7 +1188,7 @@
       </c>
       <c r="R5" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>0.70328571428571351</v>
+        <v>0.89082857142857108</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -1238,7 +1241,7 @@
       </c>
       <c r="R6" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.70328571428571451</v>
+        <v>0.84394285714285699</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -1291,7 +1294,7 @@
       </c>
       <c r="R7" s="14">
         <f ca="1">((LOOKUP(2,1/(E:E&lt;&gt;""),E:E))+(R5*R3))*100/328.2</f>
-        <v>40.771428571428544</v>
+        <v>48.1142857142857</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1344,7 +1347,7 @@
       </c>
       <c r="R8" s="14">
         <f ca="1">((LOOKUP(2,1/(I:I&lt;&gt;""),I:I))+(R6*R3))*100/328.2</f>
-        <v>33.371428571428581</v>
+        <v>38.871428571428567</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1443,7 +1446,7 @@
       </c>
       <c r="R10" s="16">
         <f ca="1">TODAY()-14</f>
-        <v>44239</v>
+        <v>44241</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1496,7 +1499,7 @@
       </c>
       <c r="R11" s="16">
         <f ca="1">R10-(7*16)</f>
-        <v>44127</v>
+        <v>44129</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1548,8 +1551,8 @@
         <v>30</v>
       </c>
       <c r="R12" s="8">
-        <f>27.535-8.565</f>
-        <v>18.97</v>
+        <f>27.683-8.703</f>
+        <v>18.98</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1601,8 +1604,8 @@
         <v>31</v>
       </c>
       <c r="R13" s="8">
-        <f>0.48-0.224</f>
-        <v>0.25600000000000001</v>
+        <f>0.485-0.225</f>
+        <v>0.26</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -1707,7 +1710,7 @@
       </c>
       <c r="R15" s="8">
         <f>(R12-R13)/(100/R14)</f>
-        <v>9.3569999999999993</v>
+        <v>9.36</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -1760,7 +1763,7 @@
       </c>
       <c r="R16" s="8">
         <f>R15*100/328.2</f>
-        <v>2.8510054844606945</v>
+        <v>2.8519195612431445</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -1859,7 +1862,7 @@
       </c>
       <c r="R18" s="6">
         <f ca="1">R7+R16</f>
-        <v>43.622434055889237</v>
+        <v>50.966205275528843</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -1873,7 +1876,7 @@
         <v>11.2</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D33" si="10">C19-C18</f>
+        <f t="shared" ref="D19:D35" si="10">C19-C18</f>
         <v>0.29999999999999893</v>
       </c>
       <c r="E19">
@@ -1912,7 +1915,7 @@
       </c>
       <c r="R19" s="6">
         <f ca="1">R8+R16</f>
-        <v>36.222434055889273</v>
+        <v>41.72334813267171</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -2063,7 +2066,7 @@
       </c>
       <c r="R22" s="10">
         <f ca="1">ROUND((R21-LOOKUP(2,1/(C:C&lt;&gt;""),C:C))/(R5*100/328.2),0)</f>
-        <v>284</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -2116,7 +2119,7 @@
       </c>
       <c r="R23" s="11">
         <f ca="1">TODAY()+R22</f>
-        <v>44537</v>
+        <v>44476</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -2169,7 +2172,7 @@
       </c>
       <c r="R24" s="10">
         <f ca="1">ROUND((R21-LOOKUP(2,1/(G:G&lt;&gt;""),G:G))/(R6*100/328.2),0)</f>
-        <v>318</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -2222,7 +2225,7 @@
       </c>
       <c r="R25" s="11">
         <f ca="1">TODAY()+R24</f>
-        <v>44571</v>
+        <v>44518</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
@@ -2597,10 +2600,92 @@
       <c r="A34" s="1">
         <v>44254</v>
       </c>
+      <c r="B34">
+        <v>1.65</v>
+      </c>
+      <c r="C34">
+        <v>14.6</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="10"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>47.917199999999994</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>1.3128000000000029</v>
+      </c>
+      <c r="G34">
+        <v>7.1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>23.302199999999996</v>
+      </c>
+      <c r="J34">
+        <f>I34-I33</f>
+        <v>0.98459999999999326</v>
+      </c>
+      <c r="K34">
+        <f>F34/(F34+J34)</f>
+        <v>0.57142857142857362</v>
+      </c>
+      <c r="L34">
+        <f>J34/(F34+J34)</f>
+        <v>0.42857142857142638</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44255</v>
+      </c>
+      <c r="B35">
+        <v>1.74</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="10"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>49.23</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>1.3128000000000029</v>
+      </c>
+      <c r="G35">
+        <v>7.5</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>24.614999999999998</v>
+      </c>
+      <c r="J35">
+        <f>I35-I34</f>
+        <v>1.3128000000000029</v>
+      </c>
+      <c r="K35">
+        <f>F35/(F35+J35)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L35">
+        <f>J35/(F35+J35)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2767,22 +2852,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="3" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>33</v>
       </c>
@@ -2793,25 +2878,28 @@
         <v>35</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>44179</v>
       </c>
       <c r="B2">
         <v>2980575</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <f>B2+C2</f>
         <v>2980575</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>44186</v>
       </c>
@@ -2821,16 +2909,16 @@
       <c r="C3">
         <v>5990000</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D13" si="0">B3+C3</f>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="0">B3+C3</f>
         <v>8061875</v>
       </c>
-      <c r="E3">
-        <f>(D3-D2)*100/D2</f>
+      <c r="F3">
+        <f>(E3-E2)*100/E2</f>
         <v>170.48052808602367</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>44193</v>
       </c>
@@ -2840,16 +2928,16 @@
       <c r="C4">
         <v>2047300</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>4690525</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E13" si="1">(D4-D3)*100/D3</f>
+      <c r="F4">
+        <f t="shared" ref="F4:F13" si="1">(E4-E3)*100/E3</f>
         <v>-41.818435537638578</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>44200</v>
       </c>
@@ -2859,16 +2947,16 @@
       <c r="C5">
         <v>2104400</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>4235750</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="1"/>
         <v>-9.6956097664973537</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>44206</v>
       </c>
@@ -2878,16 +2966,16 @@
       <c r="C6">
         <v>2064400</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>4148950</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="1"/>
         <v>-2.0492238682641797</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>44214</v>
       </c>
@@ -2897,16 +2985,16 @@
       <c r="C7">
         <v>2150000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>4299875</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>3.6376673616216153</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>44221</v>
       </c>
@@ -2916,16 +3004,16 @@
       <c r="C8">
         <v>2150000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>4299875</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>44228</v>
       </c>
@@ -2935,16 +3023,16 @@
       <c r="C9">
         <v>2913400</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>5117875</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>19.023808831652083</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>44235</v>
       </c>
@@ -2954,16 +3042,16 @@
       <c r="C10">
         <v>3430000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>5579875</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>9.0271841340400076</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>44242</v>
       </c>
@@ -2973,16 +3061,16 @@
       <c r="C11">
         <v>3352000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>5501875</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>-1.3978807768991242</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>44249</v>
       </c>
@@ -2992,16 +3080,16 @@
       <c r="C12">
         <v>3350000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>6750020</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>22.685811655117572</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>44256</v>
       </c>
@@ -3012,12 +3100,15 @@
         <v>3475500</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>7477430</v>
+        <v>2833400</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>10.776412514333291</v>
+        <f>B13+C13+D13</f>
+        <v>10310830</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>52.752584436786854</v>
       </c>
     </row>
   </sheetData>

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -955,7 +955,7 @@
   <dimension ref="A1:R66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,14 +1015,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E35" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E36" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I35" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I36" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="Q2" s="12" t="s">
@@ -1051,14 +1051,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F35" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F36" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H35" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H36" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="R3" s="13">
         <f ca="1">_xlfn.DAYS(R2,TODAY())</f>
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="R4" s="14">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="R5" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>0.89082857142857108</v>
+        <v>0.93771428571428472</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="R7" s="14">
         <f ca="1">((LOOKUP(2,1/(E:E&lt;&gt;""),E:E))+(R5*R3))*100/328.2</f>
-        <v>48.1142857142857</v>
+        <v>49.871428571428538</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="R8" s="14">
         <f ca="1">((LOOKUP(2,1/(I:I&lt;&gt;""),I:I))+(R6*R3))*100/328.2</f>
-        <v>38.871428571428567</v>
+        <v>38.81428571428571</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="R10" s="16">
         <f ca="1">TODAY()-14</f>
-        <v>44241</v>
+        <v>44242</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="R11" s="16">
         <f ca="1">R10-(7*16)</f>
-        <v>44129</v>
+        <v>44130</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1551,8 +1551,8 @@
         <v>30</v>
       </c>
       <c r="R12" s="8">
-        <f>27.683-8.703</f>
-        <v>18.98</v>
+        <f>27.738-8.778</f>
+        <v>18.96</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1604,7 +1604,7 @@
         <v>31</v>
       </c>
       <c r="R13" s="8">
-        <f>0.485-0.225</f>
+        <f>0.486-0.226</f>
         <v>0.26</v>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="R15" s="8">
         <f>(R12-R13)/(100/R14)</f>
-        <v>9.36</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="R16" s="8">
         <f>R15*100/328.2</f>
-        <v>2.8519195612431445</v>
+        <v>2.8488726386349787</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="R18" s="6">
         <f ca="1">R7+R16</f>
-        <v>50.966205275528843</v>
+        <v>52.720301210063518</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -1876,7 +1876,7 @@
         <v>11.2</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D35" si="10">C19-C18</f>
+        <f t="shared" ref="D19:D36" si="10">C19-C18</f>
         <v>0.29999999999999893</v>
       </c>
       <c r="E19">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="R19" s="6">
         <f ca="1">R8+R16</f>
-        <v>41.72334813267171</v>
+        <v>41.663158352920689</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="R22" s="10">
         <f ca="1">ROUND((R21-LOOKUP(2,1/(C:C&lt;&gt;""),C:C))/(R5*100/328.2),0)</f>
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="R23" s="11">
         <f ca="1">TODAY()+R22</f>
-        <v>44476</v>
+        <v>44465</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="R24" s="10">
         <f ca="1">ROUND((R21-LOOKUP(2,1/(G:G&lt;&gt;""),G:G))/(R6*100/328.2),0)</f>
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -2691,6 +2691,47 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44256</v>
+      </c>
+      <c r="B36">
+        <v>1.82</v>
+      </c>
+      <c r="C36">
+        <v>15.3</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="10"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>50.214599999999997</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>0.98460000000000036</v>
+      </c>
+      <c r="G36">
+        <v>7.7</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="4"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>25.2714</v>
+      </c>
+      <c r="J36">
+        <f>I36-I35</f>
+        <v>0.65640000000000143</v>
+      </c>
+      <c r="K36">
+        <f>F36/(F36+J36)</f>
+        <v>0.59999999999999953</v>
+      </c>
+      <c r="L36">
+        <f>J36/(F36+J36)</f>
+        <v>0.40000000000000041</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -2910,7 +2951,7 @@
         <v>5990000</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E13" si="0">B3+C3</f>
+        <f t="shared" ref="E3:E12" si="0">B3+C3</f>
         <v>8061875</v>
       </c>
       <c r="F3">

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,14 +1015,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E36" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E37" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I36" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I37" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="Q2" s="12" t="s">
@@ -1051,14 +1051,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F36" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F37" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H36" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H37" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="R3" s="13">
         <f ca="1">_xlfn.DAYS(R2,TODAY())</f>
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="R4" s="14">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="R5" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>0.93771428571428472</v>
+        <v>1.0314857142857139</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="R6" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.84394285714285699</v>
+        <v>0.89082857142857108</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="R7" s="14">
         <f ca="1">((LOOKUP(2,1/(E:E&lt;&gt;""),E:E))+(R5*R3))*100/328.2</f>
-        <v>49.871428571428538</v>
+        <v>53.31428571428571</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="R8" s="14">
         <f ca="1">((LOOKUP(2,1/(I:I&lt;&gt;""),I:I))+(R6*R3))*100/328.2</f>
-        <v>38.81428571428571</v>
+        <v>40.471428571428554</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="R10" s="16">
         <f ca="1">TODAY()-14</f>
-        <v>44242</v>
+        <v>44243</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="R11" s="16">
         <f ca="1">R10-(7*16)</f>
-        <v>44130</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1551,8 +1551,8 @@
         <v>30</v>
       </c>
       <c r="R12" s="8">
-        <f>27.738-8.778</f>
-        <v>18.96</v>
+        <f>27.803-8.852</f>
+        <v>18.951000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1604,8 +1604,8 @@
         <v>31</v>
       </c>
       <c r="R13" s="8">
-        <f>0.486-0.226</f>
-        <v>0.26</v>
+        <f>0.488-0.227</f>
+        <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="R15" s="8">
         <f>(R12-R13)/(100/R14)</f>
-        <v>9.35</v>
+        <v>9.3450000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="R16" s="8">
         <f>R15*100/328.2</f>
-        <v>2.8488726386349787</v>
+        <v>2.8473491773308961</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="R18" s="6">
         <f ca="1">R7+R16</f>
-        <v>52.720301210063518</v>
+        <v>56.161634891616607</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -1876,7 +1876,7 @@
         <v>11.2</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D36" si="10">C19-C18</f>
+        <f t="shared" ref="D19:D37" si="10">C19-C18</f>
         <v>0.29999999999999893</v>
       </c>
       <c r="E19">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="R19" s="6">
         <f ca="1">R8+R16</f>
-        <v>41.663158352920689</v>
+        <v>43.318777748759452</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="R22" s="10">
         <f ca="1">ROUND((R21-LOOKUP(2,1/(C:C&lt;&gt;""),C:C))/(R5*100/328.2),0)</f>
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="R23" s="11">
         <f ca="1">TODAY()+R22</f>
-        <v>44465</v>
+        <v>44446</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="R24" s="10">
         <f ca="1">ROUND((R21-LOOKUP(2,1/(G:G&lt;&gt;""),G:G))/(R6*100/328.2),0)</f>
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="R25" s="11">
         <f ca="1">TODAY()+R24</f>
-        <v>44518</v>
+        <v>44504</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
@@ -2492,15 +2492,15 @@
         <v>20.348399999999998</v>
       </c>
       <c r="J31">
-        <f>I31-I30</f>
+        <f t="shared" ref="J31:J37" si="11">I31-I30</f>
         <v>0.65639999999999787</v>
       </c>
       <c r="K31">
-        <f>F31/(F31+J31)</f>
+        <f t="shared" ref="K31:K37" si="12">F31/(F31+J31)</f>
         <v>0.50000000000000266</v>
       </c>
       <c r="L31">
-        <f>J31/(F31+J31)</f>
+        <f t="shared" ref="L31:L37" si="13">J31/(F31+J31)</f>
         <v>0.49999999999999728</v>
       </c>
     </row>
@@ -2538,15 +2538,15 @@
         <v>21.332999999999998</v>
       </c>
       <c r="J32">
-        <f>I32-I31</f>
+        <f t="shared" si="11"/>
         <v>0.98460000000000036</v>
       </c>
       <c r="K32">
-        <f>F32/(F32+J32)</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="L32">
-        <f>J32/(F32+J32)</f>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
     </row>
@@ -2584,15 +2584,15 @@
         <v>22.317600000000002</v>
       </c>
       <c r="J33">
-        <f>I33-I32</f>
+        <f t="shared" si="11"/>
         <v>0.98460000000000392</v>
       </c>
       <c r="K33">
-        <f>F33/(F33+J33)</f>
+        <f t="shared" si="12"/>
         <v>0.4999999999999955</v>
       </c>
       <c r="L33">
-        <f>J33/(F33+J33)</f>
+        <f t="shared" si="13"/>
         <v>0.50000000000000455</v>
       </c>
     </row>
@@ -2630,15 +2630,15 @@
         <v>23.302199999999996</v>
       </c>
       <c r="J34">
-        <f>I34-I33</f>
+        <f t="shared" si="11"/>
         <v>0.98459999999999326</v>
       </c>
       <c r="K34">
-        <f>F34/(F34+J34)</f>
+        <f t="shared" si="12"/>
         <v>0.57142857142857362</v>
       </c>
       <c r="L34">
-        <f>J34/(F34+J34)</f>
+        <f t="shared" si="13"/>
         <v>0.42857142857142638</v>
       </c>
     </row>
@@ -2676,15 +2676,15 @@
         <v>24.614999999999998</v>
       </c>
       <c r="J35">
-        <f>I35-I34</f>
+        <f t="shared" si="11"/>
         <v>1.3128000000000029</v>
       </c>
       <c r="K35">
-        <f>F35/(F35+J35)</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="L35">
-        <f>J35/(F35+J35)</f>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
     </row>
@@ -2722,21 +2722,62 @@
         <v>25.2714</v>
       </c>
       <c r="J36">
-        <f>I36-I35</f>
+        <f t="shared" si="11"/>
         <v>0.65640000000000143</v>
       </c>
       <c r="K36">
-        <f>F36/(F36+J36)</f>
+        <f t="shared" si="12"/>
         <v>0.59999999999999953</v>
       </c>
       <c r="L36">
-        <f>J36/(F36+J36)</f>
+        <f t="shared" si="13"/>
         <v>0.40000000000000041</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44257</v>
+      </c>
+      <c r="B37">
+        <v>1.94</v>
+      </c>
+      <c r="C37">
+        <v>15.6</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="10"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>51.199199999999998</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>0.98460000000000036</v>
+      </c>
+      <c r="G37">
+        <v>7.9</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="4"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>25.927799999999998</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="11"/>
+        <v>0.65639999999999787</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="12"/>
+        <v>0.60000000000000087</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="13"/>
+        <v>0.39999999999999913</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -1015,14 +1015,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E37" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E38" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I37" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I38" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="Q2" s="12" t="s">
@@ -1051,14 +1051,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F37" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F38" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H37" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H38" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="R3" s="13">
         <f ca="1">_xlfn.DAYS(R2,TODAY())</f>
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="R4" s="14">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>1.94</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="R5" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>1.0314857142857139</v>
+        <v>1.0783714285714276</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="R6" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.89082857142857108</v>
+        <v>0.89082857142857164</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="R7" s="14">
         <f ca="1">((LOOKUP(2,1/(E:E&lt;&gt;""),E:E))+(R5*R3))*100/328.2</f>
-        <v>53.31428571428571</v>
+        <v>54.999999999999972</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="R8" s="14">
         <f ca="1">((LOOKUP(2,1/(I:I&lt;&gt;""),I:I))+(R6*R3))*100/328.2</f>
-        <v>40.471428571428554</v>
+        <v>40.400000000000013</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="R10" s="16">
         <f ca="1">TODAY()-14</f>
-        <v>44243</v>
+        <v>44244</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="R11" s="16">
         <f ca="1">R10-(7*16)</f>
-        <v>44131</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1551,8 +1551,8 @@
         <v>30</v>
       </c>
       <c r="R12" s="8">
-        <f>27.803-8.852</f>
-        <v>18.951000000000001</v>
+        <f>27.873-8.934</f>
+        <v>18.939</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1604,8 +1604,8 @@
         <v>31</v>
       </c>
       <c r="R13" s="8">
-        <f>0.488-0.227</f>
-        <v>0.26100000000000001</v>
+        <f>0.49-0.228</f>
+        <v>0.26200000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="R15" s="8">
         <f>(R12-R13)/(100/R14)</f>
-        <v>9.3450000000000006</v>
+        <v>9.3384999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="R16" s="8">
         <f>R15*100/328.2</f>
-        <v>2.8473491773308961</v>
+        <v>2.8453686776355882</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="R18" s="6">
         <f ca="1">R7+R16</f>
-        <v>56.161634891616607</v>
+        <v>57.845368677635562</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -1876,7 +1876,7 @@
         <v>11.2</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D37" si="10">C19-C18</f>
+        <f t="shared" ref="D19:D38" si="10">C19-C18</f>
         <v>0.29999999999999893</v>
       </c>
       <c r="E19">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="R19" s="6">
         <f ca="1">R8+R16</f>
-        <v>43.318777748759452</v>
+        <v>43.245368677635604</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="R22" s="10">
         <f ca="1">ROUND((R21-LOOKUP(2,1/(C:C&lt;&gt;""),C:C))/(R5*100/328.2),0)</f>
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="R23" s="11">
         <f ca="1">TODAY()+R22</f>
-        <v>44446</v>
+        <v>44438</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="R24" s="10">
         <f ca="1">ROUND((R21-LOOKUP(2,1/(G:G&lt;&gt;""),G:G))/(R6*100/328.2),0)</f>
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -2492,15 +2492,15 @@
         <v>20.348399999999998</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J31:J37" si="11">I31-I30</f>
+        <f t="shared" ref="J31:J38" si="11">I31-I30</f>
         <v>0.65639999999999787</v>
       </c>
       <c r="K31">
-        <f t="shared" ref="K31:K37" si="12">F31/(F31+J31)</f>
+        <f t="shared" ref="K31:K38" si="12">F31/(F31+J31)</f>
         <v>0.50000000000000266</v>
       </c>
       <c r="L31">
-        <f t="shared" ref="L31:L37" si="13">J31/(F31+J31)</f>
+        <f t="shared" ref="L31:L38" si="13">J31/(F31+J31)</f>
         <v>0.49999999999999728</v>
       </c>
     </row>
@@ -2783,6 +2783,47 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44258</v>
+      </c>
+      <c r="B38">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C38">
+        <v>15.9</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="10"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>52.183799999999998</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>0.98460000000000036</v>
+      </c>
+      <c r="G38">
+        <v>8.1</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="4"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>26.584199999999999</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="11"/>
+        <v>0.65640000000000143</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="12"/>
+        <v>0.59999999999999953</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="13"/>
+        <v>0.40000000000000041</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -954,7 +954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
@@ -1015,14 +1015,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E38" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E39" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I38" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I39" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="Q2" s="12" t="s">
@@ -1051,14 +1051,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F38" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F39" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H38" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H39" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="R3" s="13">
         <f ca="1">_xlfn.DAYS(R2,TODAY())</f>
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="R4" s="14">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>2.0099999999999998</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="R5" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>1.0783714285714276</v>
+        <v>1.1252571428571423</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="R7" s="14">
         <f ca="1">((LOOKUP(2,1/(E:E&lt;&gt;""),E:E))+(R5*R3))*100/328.2</f>
-        <v>54.999999999999972</v>
+        <v>56.757142857142838</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="R8" s="14">
         <f ca="1">((LOOKUP(2,1/(I:I&lt;&gt;""),I:I))+(R6*R3))*100/328.2</f>
-        <v>40.400000000000013</v>
+        <v>40.428571428571438</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="R10" s="16">
         <f ca="1">TODAY()-14</f>
-        <v>44244</v>
+        <v>44245</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="R11" s="16">
         <f ca="1">R10-(7*16)</f>
-        <v>44132</v>
+        <v>44133</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1551,8 +1551,8 @@
         <v>30</v>
       </c>
       <c r="R12" s="8">
-        <f>27.873-8.934</f>
-        <v>18.939</v>
+        <f>27.945-9.025</f>
+        <v>18.920000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1604,8 +1604,8 @@
         <v>31</v>
       </c>
       <c r="R13" s="8">
-        <f>0.49-0.228</f>
-        <v>0.26200000000000001</v>
+        <f>0.493-0.229</f>
+        <v>0.26400000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="R15" s="8">
         <f>(R12-R13)/(100/R14)</f>
-        <v>9.3384999999999998</v>
+        <v>9.3280000000000012</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="R16" s="8">
         <f>R15*100/328.2</f>
-        <v>2.8453686776355882</v>
+        <v>2.8421694088970142</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="R18" s="6">
         <f ca="1">R7+R16</f>
-        <v>57.845368677635562</v>
+        <v>59.599312266039853</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -1876,7 +1876,7 @@
         <v>11.2</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D38" si="10">C19-C18</f>
+        <f t="shared" ref="D19:D39" si="10">C19-C18</f>
         <v>0.29999999999999893</v>
       </c>
       <c r="E19">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="R19" s="6">
         <f ca="1">R8+R16</f>
-        <v>43.245368677635604</v>
+        <v>43.270740837468452</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="R22" s="10">
         <f ca="1">ROUND((R21-LOOKUP(2,1/(C:C&lt;&gt;""),C:C))/(R5*100/328.2),0)</f>
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="R23" s="11">
         <f ca="1">TODAY()+R22</f>
-        <v>44438</v>
+        <v>44430</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="R24" s="10">
         <f ca="1">ROUND((R21-LOOKUP(2,1/(G:G&lt;&gt;""),G:G))/(R6*100/328.2),0)</f>
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -2492,15 +2492,15 @@
         <v>20.348399999999998</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J31:J38" si="11">I31-I30</f>
+        <f t="shared" ref="J31:J39" si="11">I31-I30</f>
         <v>0.65639999999999787</v>
       </c>
       <c r="K31">
-        <f t="shared" ref="K31:K38" si="12">F31/(F31+J31)</f>
+        <f t="shared" ref="K31:K39" si="12">F31/(F31+J31)</f>
         <v>0.50000000000000266</v>
       </c>
       <c r="L31">
-        <f t="shared" ref="L31:L38" si="13">J31/(F31+J31)</f>
+        <f t="shared" ref="L31:L39" si="13">J31/(F31+J31)</f>
         <v>0.49999999999999728</v>
       </c>
     </row>
@@ -2829,6 +2829,47 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44259</v>
+      </c>
+      <c r="B39">
+        <v>2.04</v>
+      </c>
+      <c r="C39">
+        <v>16.3</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="10"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>53.496600000000001</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>1.3128000000000029</v>
+      </c>
+      <c r="G39">
+        <v>8.4</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>27.5688</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="11"/>
+        <v>0.98460000000000036</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="12"/>
+        <v>0.57142857142857184</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="13"/>
+        <v>0.4285714285714281</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2975,10 +3016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3056,7 +3097,7 @@
         <v>4690525</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F13" si="1">(E4-E3)*100/E3</f>
+        <f t="shared" ref="F4:F14" si="1">(E4-E3)*100/E3</f>
         <v>-41.818435537638578</v>
       </c>
     </row>
@@ -3232,6 +3273,25 @@
       <c r="F13">
         <f t="shared" si="1"/>
         <v>52.752584436786854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>44263</v>
+      </c>
+      <c r="B14">
+        <v>4271670</v>
+      </c>
+      <c r="C14">
+        <v>3384400</v>
+      </c>
+      <c r="E14">
+        <f>B14+C14+D14</f>
+        <v>7656070</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>-25.747296774362489</v>
       </c>
     </row>
   </sheetData>

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -1015,14 +1015,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E39" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E45" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I39" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I45" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="Q2" s="12" t="s">
@@ -1051,14 +1051,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F39" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F45" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H39" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H45" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="R3" s="13">
         <f ca="1">_xlfn.DAYS(R2,TODAY())</f>
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="R4" s="14">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>2.04</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="R5" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>1.1252571428571423</v>
+        <v>1.3596857142857144</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="R6" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.89082857142857164</v>
+        <v>0.84394285714285699</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="R7" s="14">
         <f ca="1">((LOOKUP(2,1/(E:E&lt;&gt;""),E:E))+(R5*R3))*100/328.2</f>
-        <v>56.757142857142838</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="R8" s="14">
         <f ca="1">((LOOKUP(2,1/(I:I&lt;&gt;""),I:I))+(R6*R3))*100/328.2</f>
-        <v>40.428571428571438</v>
+        <v>38.699999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="R10" s="16">
         <f ca="1">TODAY()-14</f>
-        <v>44245</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="R11" s="16">
         <f ca="1">R10-(7*16)</f>
-        <v>44133</v>
+        <v>44139</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1551,8 +1551,8 @@
         <v>30</v>
       </c>
       <c r="R12" s="8">
-        <f>27.945-9.025</f>
-        <v>18.920000000000002</v>
+        <f>28.353-9.578</f>
+        <v>18.775000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1604,8 +1604,8 @@
         <v>31</v>
       </c>
       <c r="R13" s="8">
-        <f>0.493-0.229</f>
-        <v>0.26400000000000001</v>
+        <f>0.506-0.234</f>
+        <v>0.27200000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="R15" s="8">
         <f>(R12-R13)/(100/R14)</f>
-        <v>9.3280000000000012</v>
+        <v>9.2515000000000018</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="R16" s="8">
         <f>R15*100/328.2</f>
-        <v>2.8421694088970142</v>
+        <v>2.8188604509445465</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="R18" s="6">
         <f ca="1">R7+R16</f>
-        <v>59.599312266039853</v>
+        <v>68.018860450944544</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -1876,7 +1876,7 @@
         <v>11.2</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D39" si="10">C19-C18</f>
+        <f t="shared" ref="D19:D45" si="10">C19-C18</f>
         <v>0.29999999999999893</v>
       </c>
       <c r="E19">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="R19" s="6">
         <f ca="1">R8+R16</f>
-        <v>43.270740837468452</v>
+        <v>41.518860450944544</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="R22" s="10">
         <f ca="1">ROUND((R21-LOOKUP(2,1/(C:C&lt;&gt;""),C:C))/(R5*100/328.2),0)</f>
-        <v>171</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="R23" s="11">
         <f ca="1">TODAY()+R22</f>
-        <v>44430</v>
+        <v>44401</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="R24" s="10">
         <f ca="1">ROUND((R21-LOOKUP(2,1/(G:G&lt;&gt;""),G:G))/(R6*100/328.2),0)</f>
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="R25" s="11">
         <f ca="1">TODAY()+R24</f>
-        <v>44504</v>
+        <v>44518</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
@@ -2492,15 +2492,15 @@
         <v>20.348399999999998</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J31:J39" si="11">I31-I30</f>
+        <f t="shared" ref="J31:J45" si="11">I31-I30</f>
         <v>0.65639999999999787</v>
       </c>
       <c r="K31">
-        <f t="shared" ref="K31:K39" si="12">F31/(F31+J31)</f>
+        <f t="shared" ref="K31:K45" si="12">F31/(F31+J31)</f>
         <v>0.50000000000000266</v>
       </c>
       <c r="L31">
-        <f t="shared" ref="L31:L39" si="13">J31/(F31+J31)</f>
+        <f t="shared" ref="L31:L45" si="13">J31/(F31+J31)</f>
         <v>0.49999999999999728</v>
       </c>
     </row>
@@ -2876,30 +2876,276 @@
       <c r="A40" s="1">
         <v>44260</v>
       </c>
+      <c r="B40">
+        <v>2.08</v>
+      </c>
+      <c r="C40">
+        <v>16.7</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="10"/>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>54.809399999999989</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>1.3127999999999886</v>
+      </c>
+      <c r="G40">
+        <v>8.6</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="4"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>28.225199999999997</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="11"/>
+        <v>0.65639999999999787</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="12"/>
+        <v>0.66666666666666541</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="13"/>
+        <v>0.33333333333333454</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44261</v>
       </c>
+      <c r="B41">
+        <v>2.16</v>
+      </c>
+      <c r="C41">
+        <v>17.3</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="10"/>
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>56.778600000000004</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>1.9692000000000149</v>
+      </c>
+      <c r="G41">
+        <v>9</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="4"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>29.537999999999997</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="11"/>
+        <v>1.3127999999999993</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="12"/>
+        <v>0.60000000000000198</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="13"/>
+        <v>0.39999999999999802</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44262</v>
       </c>
+      <c r="B42">
+        <v>2.16</v>
+      </c>
+      <c r="C42">
+        <v>17.7</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="10"/>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>58.091399999999993</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>1.3127999999999886</v>
+      </c>
+      <c r="G42">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="4"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>30.194399999999998</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="11"/>
+        <v>0.65640000000000143</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="12"/>
+        <v>0.6666666666666643</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="13"/>
+        <v>0.33333333333333576</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44263</v>
       </c>
+      <c r="B43">
+        <v>2.17</v>
+      </c>
+      <c r="C43">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="10"/>
+        <v>0.40000000000000213</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>59.404200000000003</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>1.31280000000001</v>
+      </c>
+      <c r="G43">
+        <v>9.4</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="4"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>30.8508</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="11"/>
+        <v>0.65640000000000143</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="12"/>
+        <v>0.66666666666666785</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="13"/>
+        <v>0.33333333333333215</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44264</v>
       </c>
+      <c r="B44">
+        <v>2.15</v>
+      </c>
+      <c r="C44">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="10"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>60.388799999999996</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>0.98459999999999326</v>
+      </c>
+      <c r="G44">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="4"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>31.835399999999996</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="11"/>
+        <v>0.98459999999999681</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="12"/>
+        <v>0.49999999999999911</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="13"/>
+        <v>0.50000000000000089</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44265</v>
+      </c>
+      <c r="B45">
+        <v>2.17</v>
+      </c>
+      <c r="C45">
+        <v>18.8</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="10"/>
+        <v>0.40000000000000213</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>61.701599999999999</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>1.3128000000000029</v>
+      </c>
+      <c r="G45">
+        <v>9.9</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="4"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>32.491799999999998</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="11"/>
+        <v>0.65640000000000143</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="12"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="13"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -3016,10 +3262,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3294,6 +3540,17 @@
         <v>-25.747296774362489</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>44270</v>
+      </c>
+      <c r="B15">
+        <v>4532580</v>
+      </c>
+      <c r="C15">
+        <v>3329500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -954,7 +954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
@@ -1015,14 +1015,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E45" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E50" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I45" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I50" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="Q2" s="12" t="s">
@@ -1051,14 +1051,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F45" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F50" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H45" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H50" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="R3" s="13">
         <f ca="1">_xlfn.DAYS(R2,TODAY())</f>
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="R4" s="14">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>2.17</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="R5" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>1.3596857142857144</v>
+        <v>1.5472285714285701</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="R6" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.84394285714285699</v>
+        <v>0.98460000000000036</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="R7" s="14">
         <f ca="1">((LOOKUP(2,1/(E:E&lt;&gt;""),E:E))+(R5*R3))*100/328.2</f>
-        <v>65.2</v>
+        <v>71.842857142857099</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="R8" s="14">
         <f ca="1">((LOOKUP(2,1/(I:I&lt;&gt;""),I:I))+(R6*R3))*100/328.2</f>
-        <v>38.699999999999996</v>
+        <v>43.600000000000016</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="R10" s="16">
         <f ca="1">TODAY()-14</f>
-        <v>44251</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="R11" s="16">
         <f ca="1">R10-(7*16)</f>
-        <v>44139</v>
+        <v>44144</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1551,8 +1551,8 @@
         <v>30</v>
       </c>
       <c r="R12" s="8">
-        <f>28.353-9.578</f>
-        <v>18.775000000000002</v>
+        <f>28.68-10.192</f>
+        <v>18.488</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1604,8 +1604,8 @@
         <v>31</v>
       </c>
       <c r="R13" s="8">
-        <f>0.506-0.234</f>
-        <v>0.27200000000000002</v>
+        <f>0.514-0.239</f>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="R15" s="8">
         <f>(R12-R13)/(100/R14)</f>
-        <v>9.2515000000000018</v>
+        <v>9.1065000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="R16" s="8">
         <f>R15*100/328.2</f>
-        <v>2.8188604509445465</v>
+        <v>2.774680073126143</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="R18" s="6">
         <f ca="1">R7+R16</f>
-        <v>68.018860450944544</v>
+        <v>74.617537215983248</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -1876,7 +1876,7 @@
         <v>11.2</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D45" si="10">C19-C18</f>
+        <f t="shared" ref="D19:D50" si="10">C19-C18</f>
         <v>0.29999999999999893</v>
       </c>
       <c r="E19">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="R19" s="6">
         <f ca="1">R8+R16</f>
-        <v>41.518860450944544</v>
+        <v>46.374680073126157</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="R22" s="10">
         <f ca="1">ROUND((R21-LOOKUP(2,1/(C:C&lt;&gt;""),C:C))/(R5*100/328.2),0)</f>
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="R23" s="11">
         <f ca="1">TODAY()+R22</f>
-        <v>44401</v>
+        <v>44384</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="R24" s="10">
         <f ca="1">ROUND((R21-LOOKUP(2,1/(G:G&lt;&gt;""),G:G))/(R6*100/328.2),0)</f>
-        <v>253</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="R25" s="11">
         <f ca="1">TODAY()+R24</f>
-        <v>44518</v>
+        <v>44482</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
@@ -2492,15 +2492,15 @@
         <v>20.348399999999998</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J31:J45" si="11">I31-I30</f>
+        <f t="shared" ref="J31:J50" si="11">I31-I30</f>
         <v>0.65639999999999787</v>
       </c>
       <c r="K31">
-        <f t="shared" ref="K31:K45" si="12">F31/(F31+J31)</f>
+        <f t="shared" ref="K31:K50" si="12">F31/(F31+J31)</f>
         <v>0.50000000000000266</v>
       </c>
       <c r="L31">
-        <f t="shared" ref="L31:L45" si="13">J31/(F31+J31)</f>
+        <f t="shared" ref="L31:L50" si="13">J31/(F31+J31)</f>
         <v>0.49999999999999728</v>
       </c>
     </row>
@@ -3152,93 +3152,298 @@
       <c r="A46" s="1">
         <v>44266</v>
       </c>
+      <c r="B46">
+        <v>2.23</v>
+      </c>
+      <c r="C46">
+        <v>19.3</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>63.342599999999997</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="3"/>
+        <v>1.6409999999999982</v>
+      </c>
+      <c r="G46">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="4"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>33.476399999999998</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="11"/>
+        <v>0.98460000000000036</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="12"/>
+        <v>0.62499999999999967</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="13"/>
+        <v>0.37500000000000033</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44267</v>
       </c>
+      <c r="B47">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C47">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="10"/>
+        <v>0.59999999999999787</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>65.311799999999991</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="3"/>
+        <v>1.9691999999999936</v>
+      </c>
+      <c r="G47">
+        <v>10.5</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>34.460999999999999</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="11"/>
+        <v>0.98460000000000036</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="12"/>
+        <v>0.66666666666666585</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="13"/>
+        <v>0.33333333333333415</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44268</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>2.54</v>
+      </c>
+      <c r="C48">
+        <v>20.7</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="10"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>67.937399999999997</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="3"/>
+        <v>2.6256000000000057</v>
+      </c>
+      <c r="G48">
+        <v>11.1</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="4"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>36.430199999999999</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="11"/>
+        <v>1.9692000000000007</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="12"/>
+        <v>0.57142857142857184</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="13"/>
+        <v>0.4285714285714281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44269</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>2.39</v>
+      </c>
+      <c r="C49">
+        <v>21</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="10"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>68.921999999999997</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="3"/>
+        <v>0.98460000000000036</v>
+      </c>
+      <c r="G49">
+        <v>11.3</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="4"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>37.086599999999997</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="11"/>
+        <v>0.65639999999999787</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="12"/>
+        <v>0.60000000000000087</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="13"/>
+        <v>0.39999999999999913</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44270</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C50">
+        <v>21.4</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="10"/>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>70.234799999999993</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="3"/>
+        <v>1.3127999999999957</v>
+      </c>
+      <c r="G50">
+        <v>11.5</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="4"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>37.743000000000002</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="11"/>
+        <v>0.65640000000000498</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="12"/>
+        <v>0.6666666666666643</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="13"/>
+        <v>0.33333333333333576</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44271</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44272</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44273</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44274</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44275</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44276</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44277</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44278</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44279</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44280</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44281</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44282</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44283</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44284</v>
       </c>
@@ -3265,7 +3470,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3343,7 +3548,7 @@
         <v>4690525</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F14" si="1">(E4-E3)*100/E3</f>
+        <f t="shared" ref="F4:F15" si="1">(E4-E3)*100/E3</f>
         <v>-41.818435537638578</v>
       </c>
     </row>
@@ -3531,6 +3736,9 @@
       <c r="C14">
         <v>3384400</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
       <c r="E14">
         <f>B14+C14+D14</f>
         <v>7656070</v>
@@ -3549,6 +3757,17 @@
       </c>
       <c r="C15">
         <v>3329500</v>
+      </c>
+      <c r="D15">
+        <v>493700</v>
+      </c>
+      <c r="E15">
+        <f>B15+C15+D15</f>
+        <v>8355780</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>9.139284254193079</v>
       </c>
     </row>
   </sheetData>

--- a/Vaccine_Workbook.xlsx
+++ b/Vaccine_Workbook.xlsx
@@ -1015,14 +1015,14 @@
         <v>6.2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E50" si="0">328.2*(C2/100)</f>
+        <f t="shared" ref="E2:E57" si="0">328.2*(C2/100)</f>
         <v>20.348399999999998</v>
       </c>
       <c r="G2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I50" si="1">328.2*(G2/100)</f>
+        <f t="shared" ref="I2:I57" si="1">328.2*(G2/100)</f>
         <v>3.6102000000000003</v>
       </c>
       <c r="Q2" s="12" t="s">
@@ -1051,14 +1051,14 @@
         <v>21.332999999999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F50" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F57" si="3">E3-E2</f>
         <v>0.98460000000000036</v>
       </c>
       <c r="G3">
         <v>1.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H50" si="4">G3-G2</f>
+        <f t="shared" ref="H3:H57" si="4">G3-G2</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="I3">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="R3" s="13">
         <f ca="1">_xlfn.DAYS(R2,TODAY())</f>
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="R4" s="14">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
-        <v>2.4300000000000002</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="R5" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(F2,COUNTA(F:F)-1,0),0,0,-7,1))</f>
-        <v>1.5472285714285701</v>
+        <v>1.6410000000000013</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="R6" s="14">
         <f ca="1">AVERAGE(OFFSET(OFFSET(J2,COUNTA(J:J)-1,0),0,0,-7,1))</f>
-        <v>0.98460000000000036</v>
+        <v>0.93771428571428572</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="R7" s="14">
         <f ca="1">((LOOKUP(2,1/(E:E&lt;&gt;""),E:E))+(R5*R3))*100/328.2</f>
-        <v>71.842857142857099</v>
+        <v>74.900000000000048</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="R8" s="14">
         <f ca="1">((LOOKUP(2,1/(I:I&lt;&gt;""),I:I))+(R6*R3))*100/328.2</f>
-        <v>43.600000000000016</v>
+        <v>42.071428571428569</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="R10" s="16">
         <f ca="1">TODAY()-14</f>
-        <v>44256</v>
+        <v>44263</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="R11" s="16">
         <f ca="1">R10-(7*16)</f>
-        <v>44144</v>
+        <v>44151</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1551,8 +1551,8 @@
         <v>30</v>
       </c>
       <c r="R12" s="8">
-        <f>28.68-10.192</f>
-        <v>18.488</v>
+        <f>29.133-11.28</f>
+        <v>17.853000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1604,8 +1604,8 @@
         <v>31</v>
       </c>
       <c r="R13" s="8">
-        <f>0.514-0.239</f>
-        <v>0.27500000000000002</v>
+        <f>0.525-0.247</f>
+        <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="R15" s="8">
         <f>(R12-R13)/(100/R14)</f>
-        <v>9.1065000000000005</v>
+        <v>8.7875000000000014</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="R16" s="8">
         <f>R15*100/328.2</f>
-        <v>2.774680073126143</v>
+        <v>2.6774832419256556</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="R18" s="6">
         <f ca="1">R7+R16</f>
-        <v>74.617537215983248</v>
+        <v>77.577483241925705</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -1876,7 +1876,7 @@
         <v>11.2</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D50" si="10">C19-C18</f>
+        <f t="shared" ref="D19:D57" si="10">C19-C18</f>
         <v>0.29999999999999893</v>
       </c>
       <c r="E19">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="R19" s="6">
         <f ca="1">R8+R16</f>
-        <v>46.374680073126157</v>
+        <v>44.748911813354226</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="R22" s="10">
         <f ca="1">ROUND((R21-LOOKUP(2,1/(C:C&lt;&gt;""),C:C))/(R5*100/328.2),0)</f>
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="R23" s="11">
         <f ca="1">TODAY()+R22</f>
-        <v>44384</v>
+        <v>44377</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="R24" s="10">
         <f ca="1">ROUND((R21-LOOKUP(2,1/(G:G&lt;&gt;""),G:G))/(R6*100/328.2),0)</f>
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="R25" s="11">
         <f ca="1">TODAY()+R24</f>
-        <v>44482</v>
+        <v>44492</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
@@ -2492,15 +2492,15 @@
         <v>20.348399999999998</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J31:J50" si="11">I31-I30</f>
+        <f t="shared" ref="J31:J57" si="11">I31-I30</f>
         <v>0.65639999999999787</v>
       </c>
       <c r="K31">
-        <f t="shared" ref="K31:K50" si="12">F31/(F31+J31)</f>
+        <f t="shared" ref="K31:K57" si="12">F31/(F31+J31)</f>
         <v>0.50000000000000266</v>
       </c>
       <c r="L31">
-        <f t="shared" ref="L31:L50" si="13">J31/(F31+J31)</f>
+        <f t="shared" ref="L31:L57" si="13">J31/(F31+J31)</f>
         <v>0.49999999999999728</v>
       </c>
     </row>
@@ -3382,35 +3382,322 @@
       <c r="A51" s="1">
         <v>44271</v>
       </c>
+      <c r="B51">
+        <v>2.44</v>
+      </c>
+      <c r="C51">
+        <v>21.7</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="10"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>71.219399999999993</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>0.98460000000000036</v>
+      </c>
+      <c r="G51">
+        <v>11.8</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>38.727600000000002</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="11"/>
+        <v>0.98460000000000036</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44272</v>
       </c>
+      <c r="B52">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="C52">
+        <v>22.2</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>72.860399999999998</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>1.6410000000000053</v>
+      </c>
+      <c r="G52">
+        <v>12</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="4"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>39.384</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="11"/>
+        <v>0.65639999999999787</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="12"/>
+        <v>0.71428571428571563</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="13"/>
+        <v>0.28571428571428437</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44273</v>
       </c>
+      <c r="B53">
+        <v>2.5</v>
+      </c>
+      <c r="C53">
+        <v>22.7</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>74.50139999999999</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>1.6409999999999911</v>
+      </c>
+      <c r="G53">
+        <v>12.3</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>40.368600000000001</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="11"/>
+        <v>0.98460000000000036</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="12"/>
+        <v>0.62499999999999867</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="13"/>
+        <v>0.37500000000000133</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44274</v>
       </c>
+      <c r="B54">
+        <v>2.46</v>
+      </c>
+      <c r="C54">
+        <v>23.3</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="10"/>
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>76.470600000000005</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="3"/>
+        <v>1.9692000000000149</v>
+      </c>
+      <c r="G54">
+        <v>12.6</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="4"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>41.353200000000001</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="11"/>
+        <v>0.98460000000000036</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="12"/>
+        <v>0.66666666666666829</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="13"/>
+        <v>0.33333333333333171</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44275</v>
       </c>
+      <c r="B55">
+        <v>2.25</v>
+      </c>
+      <c r="C55">
+        <v>23.9</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="10"/>
+        <v>0.59999999999999787</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>78.439799999999991</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="3"/>
+        <v>1.9691999999999865</v>
+      </c>
+      <c r="G55">
+        <v>13</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="4"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>42.665999999999997</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="11"/>
+        <v>1.3127999999999957</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="12"/>
+        <v>0.59999999999999909</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="13"/>
+        <v>0.40000000000000085</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44276</v>
       </c>
+      <c r="B56">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C56">
+        <v>24.5</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="10"/>
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>80.408999999999992</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="3"/>
+        <v>1.9692000000000007</v>
+      </c>
+      <c r="G56">
+        <v>13.3</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>43.650600000000004</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="11"/>
+        <v>0.98460000000000747</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="12"/>
+        <v>0.66666666666666508</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="13"/>
+        <v>0.33333333333333492</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44277</v>
+      </c>
+      <c r="B57">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C57">
+        <v>24.9</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="10"/>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>81.721800000000002</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="3"/>
+        <v>1.31280000000001</v>
+      </c>
+      <c r="G57">
+        <v>13.5</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="4"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>44.307000000000002</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="11"/>
+        <v>0.65639999999999787</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="12"/>
+        <v>0.66666666666666907</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="13"/>
+        <v>0.33333333333333093</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -3467,10 +3754,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3548,7 +3835,7 @@
         <v>4690525</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F15" si="1">(E4-E3)*100/E3</f>
+        <f t="shared" ref="F4:F16" si="1">(E4-E3)*100/E3</f>
         <v>-41.818435537638578</v>
       </c>
     </row>
@@ -3768,6 +4055,29 @@
       <c r="F15">
         <f t="shared" si="1"/>
         <v>9.139284254193079</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B16">
+        <v>4617990</v>
+      </c>
+      <c r="C16">
+        <v>3329500</v>
+      </c>
+      <c r="D16">
+        <f>63*6189</f>
+        <v>389907</v>
+      </c>
+      <c r="E16">
+        <f>B16+C16+D16</f>
+        <v>8337397</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>-0.22000339884487147</v>
       </c>
     </row>
   </sheetData>
